--- a/Lectures and Assignment 3/problem5.xlsx
+++ b/Lectures and Assignment 3/problem5.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940D9B64-7C95-4F21-AB80-6B8D5AC4D8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD70389-F3AE-4052-B88E-17866F62827B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 5" sheetId="15" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
@@ -79,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Table 1</t>
   </si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>std</t>
+  </si>
+  <si>
+    <t>ISM-C1004 - Business Analytics 1 - Assignment 3 (Total 28 points)</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -402,8 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,18 +414,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,18 +444,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +497,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$E$41</c:f>
+              <c:f>'Problem 5'!$U$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -539,7 +532,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -791,254 +784,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$E$42:$E$122</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v>1.63</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.73</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.1100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-6.22</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.05</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.96</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.51</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.07</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-11.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.68</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.19</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-5.54</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.93</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.19</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.53</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-8.73</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-11.49</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.87</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-1.98</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-2.56</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10.02</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-4.1100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.21</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.36</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.74</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-4.58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.78</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-3.86</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.97</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.73</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.51</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-1.68</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-3.9</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.21</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-1.89</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-8.32</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9.98</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-2.66</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-0.37</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-5.35</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.84</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.3199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-3.77</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-4.57</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'Problem 5'!$U$19:$U$99</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -1053,7 +799,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$F$41</c:f>
+              <c:f>'Problem 5'!$V$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1088,7 +834,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1340,254 +1086,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$F$42:$F$122</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.51</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.28</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.89</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-6.04</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-5.61</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.56</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3.79</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-3.18</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.17</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-11.43</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.73</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.97</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-5.29</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-12.09</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.01</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-4.33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.28</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.07</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.89</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-7.29</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-22.76</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25.86</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.22</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14.31</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>18.43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40.19</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-8.9700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-3.29</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>33.85</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15.65</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-7.93</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.37</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-5.26</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.66</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.98</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.62</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.81</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.78</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-4.54</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-10.23</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-7.19</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14.67</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-16.97</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-8.84</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-11.97</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>27.47</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-5.77</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-6.68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-6.61</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-8.1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-28.07</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>29.03</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.62</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-15.24</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>13.52</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>24.66</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.73</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-4.3099999999999996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-2.58</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'Problem 5'!$V$19:$V$99</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -1602,7 +1101,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$G$41</c:f>
+              <c:f>'Problem 5'!$W$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1637,7 +1136,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1889,7 +1388,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$G$42:$G$122</c:f>
+              <c:f>'Problem 5'!$W$19:$W$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2151,7 +1650,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$H$41</c:f>
+              <c:f>'Problem 5'!$X$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2186,7 +1685,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2438,7 +1937,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$H$42:$H$122</c:f>
+              <c:f>'Problem 5'!$X$19:$X$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2700,7 +2199,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$I$41</c:f>
+              <c:f>'Problem 5'!$Y$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2735,7 +2234,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2987,7 +2486,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$I$42:$I$122</c:f>
+              <c:f>'Problem 5'!$Y$19:$Y$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -3249,7 +2748,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$J$41</c:f>
+              <c:f>'Problem 5'!$Z$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3284,7 +2783,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -3536,7 +3035,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$J$42:$J$122</c:f>
+              <c:f>'Problem 5'!$Z$19:$Z$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -3798,7 +3297,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$K$41</c:f>
+              <c:f>'Problem 5'!$AA$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3839,7 +3338,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -4091,7 +3590,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$K$42:$K$122</c:f>
+              <c:f>'Problem 5'!$AA$19:$AA$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -4353,7 +3852,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$L$41</c:f>
+              <c:f>'Problem 5'!$AB$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4394,7 +3893,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -4646,7 +4145,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$L$42:$L$122</c:f>
+              <c:f>'Problem 5'!$AB$19:$AB$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -4908,7 +4407,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$M$41</c:f>
+              <c:f>'Problem 5'!$AC$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4949,7 +4448,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -5201,7 +4700,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$M$42:$M$122</c:f>
+              <c:f>'Problem 5'!$AC$19:$AC$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -5463,7 +4962,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$N$41</c:f>
+              <c:f>'Problem 5'!$AD$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5504,7 +5003,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -5756,7 +5255,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$N$42:$N$122</c:f>
+              <c:f>'Problem 5'!$AD$19:$AD$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -6018,7 +5517,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$O$41</c:f>
+              <c:f>'Problem 5'!$AE$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6059,7 +5558,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -6311,7 +5810,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$O$42:$O$122</c:f>
+              <c:f>'Problem 5'!$AE$19:$AE$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -6573,7 +6072,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Problem 5'!$P$41</c:f>
+              <c:f>'Problem 5'!$AF$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6614,7 +6113,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Problem 5'!$D$42:$D$122</c:f>
+              <c:f>'Problem 5'!$T$19:$T$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -6866,7 +6365,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Problem 5'!$P$42:$P$122</c:f>
+              <c:f>'Problem 5'!$AF$19:$AF$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -8009,7 +7508,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>150812</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8987674" cy="6374648"/>
+    <xdr:ext cx="8987674" cy="10837228"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="TextBox 2">
@@ -8023,8 +7522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="77787" y="485023"/>
-          <a:ext cx="8987674" cy="6374648"/>
+          <a:off x="77787" y="478472"/>
+          <a:ext cx="8987674" cy="10837228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8510,21 +8009,45 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>a) </a:t>
+            <a:t>Task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (a):</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8536,7 +8059,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8546,6 +8069,9 @@
             <a:t> Shorting of the funds is not allowed, i.e., fund weights must be non-negative. (3p) [HINT: To check the correctness of your implementation, make sure that if you invest in only one fund, then the expected return and risk given by your model match those in the historical data].</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -8561,8 +8087,8 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8571,10 +8097,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>b) </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8583,8 +8108,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>To which funds should H.E. Pennypacker allocate capital and how much? </a:t>
-          </a:r>
+            <a:t>To build a Non-Linear Programming (NLP) model for H.E. Pennypacker's investment portfolio, we will use the Markowitz mean-variance optimization framework. This approach aims to minimize the portfolio's risk (variance) while achieving a target expected return. We will use the historical monthly returns of the 12 industry funds to estimate the mean returns and the covariance matrix of the funds.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -8595,7 +8122,361 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>What is the expected return and standard deviation of returns of the optimal allocation? (1p)</a:t>
+            <a:t>Notations and Parameters:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Let ��xi​ be the fraction of the total capital allocated to fund �i, where �∈{1,2,…,12}i∈{1,2,…,12}.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>��</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i​: Mean monthly return of fund �i.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>���</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>σ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ij​: Covariance of monthly returns between funds �i and �j.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>�targetRtarget​: Target monthly expected return (1.5%).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Objective Function:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Minimize the portfolio's risk (variance), which is a quadratic function of the weights:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Minimize∑�=112∑�=112�������Minimizei=1∑12​j=1∑12​xi​</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>σ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ij​xj​</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Constraints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Expected Return Constraint: The portfolio's expected return should be at least 1.5% per month.∑�=112����≥�targeti=1∑12​</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i​xi​≥Rtarget​</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Allocation Constraints: Specific allocation limits for certain funds.�1≤0.01(NoDur)�4≤0.02(Enrgy)�10≥0.07(Hlth)x1​x4​x10​​≤0.01(NoDur)≤0.02(Enrgy)≥0.07(Hlth)​</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sum of Weights: The sum of all weights must equal 1.∑�=112��=1i=1∑12​xi​=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Non-Negativity: No short selling is allowed.��≥0,for all �xi​≥0,for all i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Model:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Minimize∑�=112∑�=112�������Subject to∑�=112����≥�target�1≤0.01�4≤0.02�10≥0.07∑�=112��=1��≥0,for all �MinimizeSubject to​i=1∑12​j=1∑12​xi​</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>σ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ij​xj​i=1∑12​</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i​xi​≥Rtarget​x1​≤0.01x4​≤0.02x10​≥0.07i=1∑12​xi​=1xi​≥0,for all i​</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>To solve this NLP, you would typically use a solver that can handle quadratic objective functions and linear constraints. Excel Solver with the GRG Nonlinear solving method can be used for this purpose, but for large and complex datasets, specialized financial software or programming environments are often more effective.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8610,6 +8491,17 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -8620,7 +8512,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Answer here</a:t>
+            <a:t>Task (b): </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>To which funds should H.E. Pennypacker allocate capital and how much? </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>What is the expected return and standard deviation of returns of the optimal allocation? (1p)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8645,24 +8561,37 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>c)</a:t>
-          </a:r>
+            <a:t>Answer here</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> After seeing the results H.E. Pennypacker wants you to analyze the tradeoff</a:t>
+            <a:t>Task (c) After seeing the results H.E. Pennypacker wants you to analyze the tradeoff</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8674,7 +8603,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8686,7 +8615,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8698,7 +8627,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8710,7 +8639,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8722,7 +8651,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8734,7 +8663,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8746,7 +8675,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8758,7 +8687,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8770,7 +8699,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8782,7 +8711,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8794,7 +8723,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8806,7 +8735,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8818,7 +8747,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8830,7 +8759,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -8842,7 +8771,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -9646,16 +9575,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>14358</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11198</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>7486</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>423613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66006</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>441627</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59188</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9681,36 +9610,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Problem 1"/>
-      <sheetName val="Problem 2"/>
-      <sheetName val="Problem 3"/>
-      <sheetName val="Problem 4"/>
-      <sheetName val="Problem 5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ISM-C1004 - Business Analytics 1 - Assignment 3 (Total 28 points)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9976,3853 +9875,3798 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13:AF99"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="2.44140625" customWidth="1"/>
     <col min="4" max="4" width="3.88671875" customWidth="1"/>
+    <col min="20" max="20" width="4" customWidth="1"/>
     <col min="21" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="str">
-        <f>'[1]Problem 2'!$A$1</f>
-        <v>ISM-C1004 - Business Analytics 1 - Assignment 3 (Total 28 points)</v>
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U12" s="31" t="s">
+    <row r="3" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="V12" s="33" t="s">
+      <c r="V12" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U13" s="32"/>
-      <c r="V13" s="34"/>
+    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="21"/>
+      <c r="V13" s="23"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U14" s="32"/>
-      <c r="V14" s="34"/>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="S14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="10">
+        <f>AVERAGE(U19:U87)</f>
+        <v>0.51231884057971044</v>
+      </c>
+      <c r="V14" s="4">
+        <f>AVERAGE(V19:V87)</f>
+        <v>2.2234782608695656</v>
+      </c>
+      <c r="W14" s="4">
+        <f>AVERAGE(W19:W87)</f>
+        <v>0.80101449275362369</v>
+      </c>
+      <c r="X14" s="4">
+        <f>AVERAGE(X19:X87)</f>
+        <v>0.94840579710144923</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>AVERAGE(Y19:Y87)</f>
+        <v>0.66362318840579759</v>
+      </c>
+      <c r="Z14" s="4">
+        <f>AVERAGE(Z19:Z87)</f>
+        <v>1.4984057971014493</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>AVERAGE(AA19:AA87)</f>
+        <v>8.2753623188405886E-2</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>AVERAGE(AB19:AB87)</f>
+        <v>0.69971014492753625</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>AVERAGE(AC19:AC87)</f>
+        <v>1.133623188405797</v>
+      </c>
+      <c r="AD14" s="4">
+        <f>AVERAGE(AD19:AD87)</f>
+        <v>0.89913043478260912</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>AVERAGE(AE19:AE87)</f>
+        <v>0.86246376811594161</v>
+      </c>
+      <c r="AF14" s="5">
+        <f>AVERAGE(AF19:AF87)</f>
+        <v>0.65159420289855086</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U15" s="32"/>
-      <c r="V15" s="34"/>
+    <row r="15" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="12">
+        <f>_xlfn.STDEV.P(U19:U87)</f>
+        <v>4.1654152827840383</v>
+      </c>
+      <c r="V15" s="8">
+        <f>_xlfn.STDEV.P(V19:V87)</f>
+        <v>11.095142928207526</v>
+      </c>
+      <c r="W15" s="8">
+        <f>_xlfn.STDEV.P(W19:W87)</f>
+        <v>6.0750022711100975</v>
+      </c>
+      <c r="X15" s="8">
+        <f>_xlfn.STDEV.P(X19:X87)</f>
+        <v>10.144599566127184</v>
+      </c>
+      <c r="Y15" s="8">
+        <f>_xlfn.STDEV.P(Y19:Y87)</f>
+        <v>4.5552460507255477</v>
+      </c>
+      <c r="Z15" s="8">
+        <f>_xlfn.STDEV.P(Z19:Z87)</f>
+        <v>5.8723228555135387</v>
+      </c>
+      <c r="AA15" s="8">
+        <f>_xlfn.STDEV.P(AA19:AA87)</f>
+        <v>5.0090109770576436</v>
+      </c>
+      <c r="AB15" s="8">
+        <f>_xlfn.STDEV.P(AB19:AB87)</f>
+        <v>4.4182451008354553</v>
+      </c>
+      <c r="AC15" s="8">
+        <f>_xlfn.STDEV.P(AC19:AC87)</f>
+        <v>5.4033851362342098</v>
+      </c>
+      <c r="AD15" s="8">
+        <f>_xlfn.STDEV.P(AD19:AD87)</f>
+        <v>4.352672588668506</v>
+      </c>
+      <c r="AE15" s="8">
+        <f>_xlfn.STDEV.P(AE19:AE87)</f>
+        <v>5.7614099536905332</v>
+      </c>
+      <c r="AF15" s="9">
+        <f>_xlfn.STDEV.P(AF19:AF87)</f>
+        <v>5.5682116982464054</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U16" s="20">
-        <v>0.91214356922733753</v>
-      </c>
-      <c r="V16" s="13">
-        <v>3.7546872195090173</v>
-      </c>
+    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S16" s="17"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="19"/>
     </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.3">
-      <c r="U17" s="20">
-        <v>0.99999999891501978</v>
-      </c>
-      <c r="V17" s="13">
-        <v>3.8157828415620849</v>
-      </c>
+    <row r="17" spans="19:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="28"/>
     </row>
-    <row r="18" spans="21:22" x14ac:dyDescent="0.3">
-      <c r="U18" s="20">
-        <v>1.2500000017783193</v>
-      </c>
-      <c r="V18" s="13">
-        <v>4.1577627832959321</v>
+    <row r="18" spans="19:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF18" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="19" spans="21:22" x14ac:dyDescent="0.3">
-      <c r="U19" s="20">
-        <v>1.5000000077027831</v>
-      </c>
-      <c r="V19" s="13">
-        <v>4.7330199405696769</v>
+    <row r="19" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S19" s="10">
+        <v>201701</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="V19" s="4">
+        <v>2.74</v>
+      </c>
+      <c r="W19" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="X19" s="4">
+        <v>-4.3600000000000003</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>4.67</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>1.54</v>
       </c>
     </row>
-    <row r="20" spans="21:22" x14ac:dyDescent="0.3">
-      <c r="U20" s="20">
-        <v>1.7500000032263363</v>
-      </c>
-      <c r="V20" s="13">
-        <v>5.4710888120270837</v>
+    <row r="20" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S20" s="11">
+        <v>201702</v>
+      </c>
+      <c r="T20" s="6">
+        <v>2</v>
+      </c>
+      <c r="U20" s="6">
+        <v>3.69</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="W20" s="6">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="X20" s="6">
+        <v>-2.4</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>4.05</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>6.97</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>2.34</v>
       </c>
     </row>
-    <row r="21" spans="21:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U21" s="21">
-        <v>2.0560434710747852</v>
-      </c>
-      <c r="V21" s="14">
-        <v>6.5148096343547213</v>
+    <row r="21" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S21" s="11">
+        <v>201703</v>
+      </c>
+      <c r="T21" s="6">
+        <v>3</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="V21" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="W21" s="6">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="X21" s="6">
+        <v>-1.19</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>2.11</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>-2.29</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>-0.7</v>
       </c>
     </row>
-    <row r="36" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="3" t="s">
+    <row r="22" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S22" s="11">
+        <v>201704</v>
+      </c>
+      <c r="T22" s="6">
+        <v>4</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="V22" s="6">
+        <v>1.73</v>
+      </c>
+      <c r="W22" s="6">
+        <v>2.71</v>
+      </c>
+      <c r="X22" s="6">
+        <v>-2.66</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>2.71</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>2.71</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="AE22" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="23" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S23" s="11">
+        <v>201705</v>
+      </c>
+      <c r="T23" s="6">
+        <v>5</v>
+      </c>
+      <c r="U23" s="6">
+        <v>3.12</v>
+      </c>
+      <c r="V23" s="6">
+        <v>-0.51</v>
+      </c>
+      <c r="W23" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="X23" s="6">
+        <v>-3.28</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>-1.55</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>2.56</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>-0.25</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>-1.06</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S24" s="11">
+        <v>201706</v>
+      </c>
+      <c r="T24" s="6">
+        <v>6</v>
+      </c>
+      <c r="U24" s="6">
+        <v>-1.03</v>
+      </c>
+      <c r="V24" s="6">
+        <v>3.51</v>
+      </c>
+      <c r="W24" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="X24" s="6">
+        <v>-0.08</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>-2.13</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>-1.89</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>-1.9</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>5.54</v>
+      </c>
+      <c r="AE24" s="6">
+        <v>5.84</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="25" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S25" s="11">
+        <v>201707</v>
+      </c>
+      <c r="T25" s="6">
+        <v>7</v>
+      </c>
+      <c r="U25" s="6">
+        <v>-0.13</v>
+      </c>
+      <c r="V25" s="6">
+        <v>-1.17</v>
+      </c>
+      <c r="W25" s="6">
+        <v>2.31</v>
+      </c>
+      <c r="X25" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>3.77</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>5.27</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>2.98</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="26" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S26" s="11">
+        <v>201708</v>
+      </c>
+      <c r="T26" s="6">
+        <v>8</v>
+      </c>
+      <c r="U26" s="6">
+        <v>-1.73</v>
+      </c>
+      <c r="V26" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="W26" s="6">
+        <v>-0.21</v>
+      </c>
+      <c r="X26" s="6">
+        <v>-5.09</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>1.17</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>3.06</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>-2.64</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>-1.67</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>2.58</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>-1.22</v>
+      </c>
+      <c r="AF26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S27" s="11">
+        <v>201709</v>
+      </c>
+      <c r="T27" s="6">
+        <v>9</v>
+      </c>
+      <c r="U27" s="6">
+        <v>-0.33</v>
+      </c>
+      <c r="V27" s="6">
+        <v>5.28</v>
+      </c>
+      <c r="W27" s="6">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="X27" s="6">
+        <v>10.95</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>2.34</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>-1.67</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>-1.97</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AE27" s="6">
+        <v>5.22</v>
+      </c>
+      <c r="AF27" s="7">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="28" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S28" s="11">
+        <v>201710</v>
+      </c>
+      <c r="T28" s="6">
+        <v>10</v>
+      </c>
+      <c r="U28" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="V28" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="W28" s="6">
+        <v>3.62</v>
+      </c>
+      <c r="X28" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>6.85</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>-5.68</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>3.07</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>2.72</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>-2.27</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>3.39</v>
+      </c>
+      <c r="AF28" s="7">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="29" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S29" s="11">
+        <v>201711</v>
+      </c>
+      <c r="T29" s="6">
+        <v>11</v>
+      </c>
+      <c r="U29" s="6">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="V29" s="6">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="W29" s="6">
+        <v>3.48</v>
+      </c>
+      <c r="X29" s="6">
+        <v>2.99</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>3.76</v>
+      </c>
+      <c r="AB29" s="6">
+        <v>2.42</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="AE29" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="AF29" s="7">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="30" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S30" s="11">
+        <v>201712</v>
+      </c>
+      <c r="T30" s="6">
+        <v>12</v>
+      </c>
+      <c r="U30" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V30" s="6">
+        <v>-0.89</v>
+      </c>
+      <c r="W30" s="6">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="X30" s="6">
+        <v>5.01</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>-0.11</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>4.47</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>-5.0199999999999996</v>
+      </c>
+      <c r="AC30" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>-0.17</v>
+      </c>
+      <c r="AE30" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="AF30" s="7">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="31" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S31" s="11">
+        <v>201801</v>
+      </c>
+      <c r="T31" s="6">
+        <v>13</v>
+      </c>
+      <c r="U31" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="V31" s="6">
+        <v>2.61</v>
+      </c>
+      <c r="W31" s="6">
+        <v>6.16</v>
+      </c>
+      <c r="X31" s="6">
+        <v>2.86</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>-0.53</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>7.83</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>-2.83</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="AD31" s="6">
+        <v>6.37</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>6.16</v>
+      </c>
+      <c r="AF31" s="7">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="32" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S32" s="11">
+        <v>201802</v>
+      </c>
+      <c r="T32" s="6">
+        <v>14</v>
+      </c>
+      <c r="U32" s="6">
+        <v>-6.22</v>
+      </c>
+      <c r="V32" s="6">
+        <v>-6.04</v>
+      </c>
+      <c r="W32" s="6">
+        <v>-3.26</v>
+      </c>
+      <c r="X32" s="6">
+        <v>-10.74</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>-5.76</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>-0.03</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>-7.13</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>-4.7</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>-3.53</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>-2.56</v>
+      </c>
+      <c r="AF32" s="7">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="33" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S33" s="11">
+        <v>201803</v>
+      </c>
+      <c r="T33" s="6">
+        <v>15</v>
+      </c>
+      <c r="U33" s="6">
+        <v>-1.05</v>
+      </c>
+      <c r="V33" s="6">
+        <v>-5.61</v>
+      </c>
+      <c r="W33" s="6">
+        <v>-3.22</v>
+      </c>
+      <c r="X33" s="6">
+        <v>2.97</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>-3.3</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>-2.6</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="AC33" s="6">
+        <v>-2.52</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>-2.42</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>-3.44</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>-1.47</v>
+      </c>
+    </row>
+    <row r="34" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S34" s="11">
+        <v>201804</v>
+      </c>
+      <c r="T34" s="6">
+        <v>16</v>
+      </c>
+      <c r="U34" s="6">
+        <v>-3.96</v>
+      </c>
+      <c r="V34" s="6">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="W34" s="6">
+        <v>-3.56</v>
+      </c>
+      <c r="X34" s="6">
+        <v>10.01</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>-2.78</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>-0.06</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>-2.38</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>2.77</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>3.91</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>-0.04</v>
+      </c>
+      <c r="AE34" s="6">
+        <v>1.21</v>
+      </c>
+      <c r="AF34" s="7">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="35" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S35" s="11">
+        <v>201805</v>
+      </c>
+      <c r="T35" s="6">
+        <v>17</v>
+      </c>
+      <c r="U35" s="6">
+        <v>-0.51</v>
+      </c>
+      <c r="V35" s="6">
+        <v>2.97</v>
+      </c>
+      <c r="W35" s="6">
+        <v>3.26</v>
+      </c>
+      <c r="X35" s="6">
+        <v>3.43</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>6.82</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>-0.84</v>
+      </c>
+      <c r="AB35" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="AC35" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="AD35" s="6">
+        <v>2.29</v>
+      </c>
+      <c r="AE35" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF35" s="7">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="36" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S36" s="11">
+        <v>201806</v>
+      </c>
+      <c r="T36" s="6">
+        <v>18</v>
+      </c>
+      <c r="U36" s="6">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="V36" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="W36" s="6">
+        <v>-2.15</v>
+      </c>
+      <c r="X36" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>-0.32</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>6.43</v>
+      </c>
+      <c r="AB36" s="6">
+        <v>2.61</v>
+      </c>
+      <c r="AC36" s="6">
+        <v>3.06</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="AE36" s="6">
+        <v>-0.98</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="37" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S37" s="11">
+        <v>201807</v>
+      </c>
+      <c r="T37" s="6">
+        <v>19</v>
+      </c>
+      <c r="U37" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="V37" s="6">
+        <v>-1.56</v>
+      </c>
+      <c r="W37" s="6">
+        <v>5.78</v>
+      </c>
+      <c r="X37" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>3.73</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>2.69</v>
+      </c>
+      <c r="AB37" s="6">
+        <v>1.73</v>
+      </c>
+      <c r="AC37" s="6">
+        <v>3.21</v>
+      </c>
+      <c r="AD37" s="6">
+        <v>5.99</v>
+      </c>
+      <c r="AE37" s="6">
+        <v>4.25</v>
+      </c>
+      <c r="AF37" s="7">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="38" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S38" s="11">
+        <v>201808</v>
+      </c>
+      <c r="T38" s="6">
+        <v>20</v>
+      </c>
+      <c r="U38" s="6">
+        <v>-1.07</v>
+      </c>
+      <c r="V38" s="6">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="W38" s="6">
+        <v>-0.98</v>
+      </c>
+      <c r="X38" s="6">
+        <v>-2.84</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>3.08</v>
+      </c>
+      <c r="AB38" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="AC38" s="6">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AD38" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AE38" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="39" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S39" s="11">
+        <v>201809</v>
+      </c>
+      <c r="T39" s="6">
+        <v>21</v>
+      </c>
+      <c r="U39" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="V39" s="6">
+        <v>-3.79</v>
+      </c>
+      <c r="W39" s="6">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="X39" s="6">
+        <v>3.35</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>-0.91</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>-0.22</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>1.64</v>
+      </c>
+      <c r="AB39" s="6">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AC39" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="AD39" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="AE39" s="6">
+        <v>-2</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S40" s="11">
+        <v>201810</v>
+      </c>
+      <c r="T40" s="6">
+        <v>22</v>
+      </c>
+      <c r="U40" s="6">
+        <v>-0.24</v>
+      </c>
+      <c r="V40" s="6">
+        <v>-3.18</v>
+      </c>
+      <c r="W40" s="6">
+        <v>-11.6</v>
+      </c>
+      <c r="X40" s="6">
+        <v>-11.87</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>-6.23</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>-8.7899999999999991</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>-0.34</v>
+      </c>
+      <c r="AB40" s="6">
+        <v>-0.06</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>-8.75</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="AE40" s="6">
+        <v>-5.54</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S41" s="11">
+        <v>201811</v>
+      </c>
+      <c r="T41" s="6">
+        <v>23</v>
+      </c>
+      <c r="U41" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="V41" s="6">
+        <v>5.17</v>
+      </c>
+      <c r="W41" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="X41" s="6">
+        <v>-2.17</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>-1.62</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>2.62</v>
+      </c>
+      <c r="AB41" s="6">
+        <v>3.27</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AD41" s="6">
+        <v>6.46</v>
+      </c>
+      <c r="AE41" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="42" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S42" s="11">
+        <v>201812</v>
+      </c>
+      <c r="T42" s="6">
+        <v>24</v>
+      </c>
+      <c r="U42" s="6">
+        <v>-11.23</v>
+      </c>
+      <c r="V42" s="6">
+        <v>-11.43</v>
+      </c>
+      <c r="W42" s="6">
+        <v>-9.8699999999999992</v>
+      </c>
+      <c r="X42" s="6">
+        <v>-13.02</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>-6.3</v>
+      </c>
+      <c r="Z42" s="6">
+        <v>-8.0399999999999991</v>
+      </c>
+      <c r="AA42" s="6">
+        <v>-8.77</v>
+      </c>
+      <c r="AB42" s="6">
+        <v>-4.75</v>
+      </c>
+      <c r="AC42" s="6">
+        <v>-9.06</v>
+      </c>
+      <c r="AD42" s="6">
+        <v>-8.18</v>
+      </c>
+      <c r="AE42" s="6">
+        <v>-11.48</v>
+      </c>
+      <c r="AF42" s="7">
+        <v>-9.35</v>
+      </c>
+    </row>
+    <row r="43" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S43" s="11">
+        <v>201901</v>
+      </c>
+      <c r="T43" s="6">
+        <v>25</v>
+      </c>
+      <c r="U43" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="V43" s="6">
+        <v>10.73</v>
+      </c>
+      <c r="W43" s="6">
+        <v>11.85</v>
+      </c>
+      <c r="X43" s="6">
+        <v>10.32</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>5.66</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>9.49</v>
+      </c>
+      <c r="AA43" s="6">
+        <v>5.56</v>
+      </c>
+      <c r="AB43" s="6">
+        <v>5.41</v>
+      </c>
+      <c r="AC43" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AD43" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="AE43" s="6">
+        <v>9.77</v>
+      </c>
+      <c r="AF43" s="7">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S44" s="11">
+        <v>201902</v>
+      </c>
+      <c r="T44" s="6">
+        <v>26</v>
+      </c>
+      <c r="U44" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="V44" s="6">
+        <v>3.97</v>
+      </c>
+      <c r="W44" s="6">
+        <v>5.67</v>
+      </c>
+      <c r="X44" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>4.45</v>
+      </c>
+      <c r="Z44" s="6">
+        <v>5.67</v>
+      </c>
+      <c r="AA44" s="6">
+        <v>3.26</v>
+      </c>
+      <c r="AB44" s="6">
+        <v>3.62</v>
+      </c>
+      <c r="AC44" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="AD44" s="6">
+        <v>3.23</v>
+      </c>
+      <c r="AE44" s="6">
+        <v>2.87</v>
+      </c>
+      <c r="AF44" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S45" s="11">
+        <v>201903</v>
+      </c>
+      <c r="T45" s="6">
+        <v>27</v>
+      </c>
+      <c r="U45" s="6">
+        <v>3.68</v>
+      </c>
+      <c r="V45" s="6">
+        <v>-5.29</v>
+      </c>
+      <c r="W45" s="6">
+        <v>-2.14</v>
+      </c>
+      <c r="X45" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="Z45" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="AA45" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="AB45" s="6">
+        <v>3.32</v>
+      </c>
+      <c r="AC45" s="6">
+        <v>3.37</v>
+      </c>
+      <c r="AD45" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="AE45" s="6">
+        <v>-2.35</v>
+      </c>
+      <c r="AF45" s="7">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="46" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S46" s="11">
+        <v>201904</v>
+      </c>
+      <c r="T46" s="6">
+        <v>28</v>
+      </c>
+      <c r="U46" s="6">
+        <v>3.19</v>
+      </c>
+      <c r="V46" s="6">
+        <v>3.35</v>
+      </c>
+      <c r="W46" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="X46" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="Y46" s="6">
+        <v>4.46</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>6.02</v>
+      </c>
+      <c r="AA46" s="6">
+        <v>6.32</v>
+      </c>
+      <c r="AB46" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="AC46" s="6">
+        <v>4.59</v>
+      </c>
+      <c r="AD46" s="6">
+        <v>-3.13</v>
+      </c>
+      <c r="AE46" s="6">
+        <v>7.11</v>
+      </c>
+      <c r="AF46" s="7">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="47" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S47" s="11">
+        <v>201905</v>
+      </c>
+      <c r="T47" s="6">
+        <v>29</v>
+      </c>
+      <c r="U47" s="6">
+        <v>-5.54</v>
+      </c>
+      <c r="V47" s="6">
+        <v>-12.09</v>
+      </c>
+      <c r="W47" s="6">
+        <v>-9.89</v>
+      </c>
+      <c r="X47" s="6">
+        <v>-11.81</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>-7.75</v>
+      </c>
+      <c r="Z47" s="6">
+        <v>-8.48</v>
+      </c>
+      <c r="AA47" s="6">
+        <v>-2.97</v>
+      </c>
+      <c r="AB47" s="6">
+        <v>-1.54</v>
+      </c>
+      <c r="AC47" s="6">
+        <v>-6.04</v>
+      </c>
+      <c r="AD47" s="6">
+        <v>-3.37</v>
+      </c>
+      <c r="AE47" s="6">
+        <v>-5.52</v>
+      </c>
+      <c r="AF47" s="7">
+        <v>-7.42</v>
+      </c>
+    </row>
+    <row r="48" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S48" s="11">
+        <v>201906</v>
+      </c>
+      <c r="T48" s="6">
+        <v>30</v>
+      </c>
+      <c r="U48" s="6">
+        <v>4.93</v>
+      </c>
+      <c r="V48" s="6">
+        <v>13.01</v>
+      </c>
+      <c r="W48" s="6">
+        <v>9.66</v>
+      </c>
+      <c r="X48" s="6">
+        <v>8.86</v>
+      </c>
+      <c r="Y48" s="6">
+        <v>5.23</v>
+      </c>
+      <c r="Z48" s="6">
+        <v>7.83</v>
+      </c>
+      <c r="AA48" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="AB48" s="6">
+        <v>3.64</v>
+      </c>
+      <c r="AC48" s="6">
+        <v>7.14</v>
+      </c>
+      <c r="AD48" s="6">
+        <v>6.84</v>
+      </c>
+      <c r="AE48" s="6">
+        <v>6.24</v>
+      </c>
+      <c r="AF48" s="7">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="49" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S49" s="11">
+        <v>201907</v>
+      </c>
+      <c r="T49" s="6">
+        <v>31</v>
+      </c>
+      <c r="U49" s="6">
+        <v>1.73</v>
+      </c>
+      <c r="V49" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="W49" s="6">
+        <v>-0.32</v>
+      </c>
+      <c r="X49" s="6">
+        <v>-2.67</v>
+      </c>
+      <c r="Y49" s="6">
+        <v>3.23</v>
+      </c>
+      <c r="Z49" s="6">
+        <v>3.64</v>
+      </c>
+      <c r="AA49" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="AB49" s="6">
+        <v>-0.99</v>
+      </c>
+      <c r="AC49" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="AD49" s="6">
+        <v>-2.19</v>
+      </c>
+      <c r="AE49" s="6">
+        <v>3.12</v>
+      </c>
+      <c r="AF49" s="7">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="50" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S50" s="11">
+        <v>201908</v>
+      </c>
+      <c r="T50" s="6">
+        <v>32</v>
+      </c>
+      <c r="U50" s="6">
+        <v>-1.33</v>
+      </c>
+      <c r="V50" s="6">
+        <v>-4.33</v>
+      </c>
+      <c r="W50" s="6">
+        <v>-2.06</v>
+      </c>
+      <c r="X50" s="6">
+        <v>-8.74</v>
+      </c>
+      <c r="Y50" s="6">
+        <v>-0.8</v>
+      </c>
+      <c r="Z50" s="6">
+        <v>-2.77</v>
+      </c>
+      <c r="AA50" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="AB50" s="6">
+        <v>3.44</v>
+      </c>
+      <c r="AC50" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD50" s="6">
+        <v>-0.61</v>
+      </c>
+      <c r="AE50" s="6">
+        <v>-4.7300000000000004</v>
+      </c>
+      <c r="AF50" s="7">
+        <v>-3.98</v>
+      </c>
+    </row>
+    <row r="51" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S51" s="11">
+        <v>201909</v>
+      </c>
+      <c r="T51" s="6">
+        <v>33</v>
+      </c>
+      <c r="U51" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="V51" s="6">
+        <v>3.28</v>
+      </c>
+      <c r="W51" s="6">
+        <v>4.45</v>
+      </c>
+      <c r="X51" s="6">
+        <v>3.71</v>
+      </c>
+      <c r="Y51" s="6">
+        <v>2.88</v>
+      </c>
+      <c r="Z51" s="6">
+        <v>1.01</v>
+      </c>
+      <c r="AA51" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="AB51" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="AC51" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="AD51" s="6">
+        <v>-0.94</v>
+      </c>
+      <c r="AE51" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AF51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S52" s="11">
+        <v>201910</v>
+      </c>
+      <c r="T52" s="6">
+        <v>34</v>
+      </c>
+      <c r="U52" s="6">
+        <v>-0.02</v>
+      </c>
+      <c r="V52" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="W52" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="X52" s="6">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="Y52" s="6">
+        <v>-1.56</v>
+      </c>
+      <c r="Z52" s="6">
+        <v>3.24</v>
+      </c>
+      <c r="AA52" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="AB52" s="6">
+        <v>-1.42</v>
+      </c>
+      <c r="AC52" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="AD52" s="6">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="AE52" s="6">
+        <v>3.37</v>
+      </c>
+      <c r="AF52" s="7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="53" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S53" s="11">
+        <v>201911</v>
+      </c>
+      <c r="T53" s="6">
+        <v>35</v>
+      </c>
+      <c r="U53" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="V53" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="W53" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="X53" s="6">
+        <v>1.21</v>
+      </c>
+      <c r="Y53" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="Z53" s="6">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="AA53" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="AB53" s="6">
+        <v>-2.15</v>
+      </c>
+      <c r="AC53" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="AD53" s="6">
+        <v>5.53</v>
+      </c>
+      <c r="AE53" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="AF53" s="7">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="54" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S54" s="11">
+        <v>201912</v>
+      </c>
+      <c r="T54" s="6">
+        <v>36</v>
+      </c>
+      <c r="U54" s="6">
+        <v>3.53</v>
+      </c>
+      <c r="V54" s="6">
+        <v>5.07</v>
+      </c>
+      <c r="W54" s="6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X54" s="6">
+        <v>6.18</v>
+      </c>
+      <c r="Y54" s="6">
+        <v>2.11</v>
+      </c>
+      <c r="Z54" s="6">
+        <v>3.68</v>
+      </c>
+      <c r="AA54" s="6">
+        <v>1.24</v>
+      </c>
+      <c r="AB54" s="6">
+        <v>4.13</v>
+      </c>
+      <c r="AC54" s="6">
+        <v>1.37</v>
+      </c>
+      <c r="AD54" s="6">
+        <v>3.45</v>
+      </c>
+      <c r="AE54" s="6">
+        <v>2.62</v>
+      </c>
+      <c r="AF54" s="7">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="55" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S55" s="11">
+        <v>202001</v>
+      </c>
+      <c r="T55" s="6">
+        <v>37</v>
+      </c>
+      <c r="U55" s="6">
+        <v>-0.38</v>
+      </c>
+      <c r="V55" s="6">
+        <v>5.89</v>
+      </c>
+      <c r="W55" s="6">
+        <v>-2.85</v>
+      </c>
+      <c r="X55" s="6">
+        <v>-11.87</v>
+      </c>
+      <c r="Y55" s="6">
+        <v>-3.15</v>
+      </c>
+      <c r="Z55" s="6">
+        <v>3.33</v>
+      </c>
+      <c r="AA55" s="6">
+        <v>-1.99</v>
+      </c>
+      <c r="AB55" s="6">
+        <v>4.83</v>
+      </c>
+      <c r="AC55" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="AD55" s="6">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="AE55" s="6">
+        <v>-2.31</v>
+      </c>
+      <c r="AF55" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="56" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S56" s="11">
+        <v>202002</v>
+      </c>
+      <c r="T56" s="6">
+        <v>38</v>
+      </c>
+      <c r="U56" s="6">
+        <v>-8.73</v>
+      </c>
+      <c r="V56" s="6">
+        <v>-7.29</v>
+      </c>
+      <c r="W56" s="6">
+        <v>-8.4700000000000006</v>
+      </c>
+      <c r="X56" s="6">
+        <v>-15.3</v>
+      </c>
+      <c r="Y56" s="6">
+        <v>-8.83</v>
+      </c>
+      <c r="Z56" s="6">
+        <v>-6.91</v>
+      </c>
+      <c r="AA56" s="6">
+        <v>-5.95</v>
+      </c>
+      <c r="AB56" s="6">
+        <v>-9.85</v>
+      </c>
+      <c r="AC56" s="6">
+        <v>-6.8</v>
+      </c>
+      <c r="AD56" s="6">
+        <v>-5.39</v>
+      </c>
+      <c r="AE56" s="6">
+        <v>-10.65</v>
+      </c>
+      <c r="AF56" s="7">
+        <v>-8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S57" s="11">
+        <v>202003</v>
+      </c>
+      <c r="T57" s="6">
+        <v>39</v>
+      </c>
+      <c r="U57" s="6">
+        <v>-11.49</v>
+      </c>
+      <c r="V57" s="6">
+        <v>-22.76</v>
+      </c>
+      <c r="W57" s="6">
+        <v>-20.059999999999999</v>
+      </c>
+      <c r="X57" s="6">
+        <v>-34.49</v>
+      </c>
+      <c r="Y57" s="6">
+        <v>-10.25</v>
+      </c>
+      <c r="Z57" s="6">
+        <v>-9.6300000000000008</v>
+      </c>
+      <c r="AA57" s="6">
+        <v>-13.37</v>
+      </c>
+      <c r="AB57" s="6">
+        <v>-13.01</v>
+      </c>
+      <c r="AC57" s="6">
+        <v>-7.6</v>
+      </c>
+      <c r="AD57" s="6">
+        <v>-5</v>
+      </c>
+      <c r="AE57" s="6">
+        <v>-20.02</v>
+      </c>
+      <c r="AF57" s="7">
+        <v>-17.25</v>
+      </c>
+    </row>
+    <row r="58" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S58" s="11">
+        <v>202004</v>
+      </c>
+      <c r="T58" s="6">
+        <v>40</v>
+      </c>
+      <c r="U58" s="6">
+        <v>8.01</v>
+      </c>
+      <c r="V58" s="6">
+        <v>25.86</v>
+      </c>
+      <c r="W58" s="6">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="X58" s="6">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="Y58" s="6">
+        <v>12.56</v>
+      </c>
+      <c r="Z58" s="6">
+        <v>15.17</v>
+      </c>
+      <c r="AA58" s="6">
+        <v>9.56</v>
+      </c>
+      <c r="AB58" s="6">
+        <v>5.07</v>
+      </c>
+      <c r="AC58" s="6">
+        <v>18.04</v>
+      </c>
+      <c r="AD58" s="6">
+        <v>13.41</v>
+      </c>
+      <c r="AE58" s="6">
+        <v>11.91</v>
+      </c>
+      <c r="AF58" s="7">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="59" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S59" s="11">
+        <v>202005</v>
+      </c>
+      <c r="T59" s="6">
+        <v>41</v>
+      </c>
+      <c r="U59" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="V59" s="6">
+        <v>7.22</v>
+      </c>
+      <c r="W59" s="6">
+        <v>6.58</v>
+      </c>
+      <c r="X59" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="Y59" s="6">
+        <v>4.93</v>
+      </c>
+      <c r="Z59" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="AA59" s="6">
+        <v>4.78</v>
+      </c>
+      <c r="AB59" s="6">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AC59" s="6">
+        <v>4.42</v>
+      </c>
+      <c r="AD59" s="6">
+        <v>4.05</v>
+      </c>
+      <c r="AE59" s="6">
+        <v>3.76</v>
+      </c>
+      <c r="AF59" s="7">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="60" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S60" s="11">
+        <v>202006</v>
+      </c>
+      <c r="T60" s="6">
+        <v>42</v>
+      </c>
+      <c r="U60" s="6">
+        <v>-0.03</v>
+      </c>
+      <c r="V60" s="6">
+        <v>14.31</v>
+      </c>
+      <c r="W60" s="6">
+        <v>3.32</v>
+      </c>
+      <c r="X60" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="Y60" s="6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Z60" s="6">
+        <v>6.09</v>
+      </c>
+      <c r="AA60" s="6">
+        <v>-2.52</v>
+      </c>
+      <c r="AB60" s="6">
+        <v>-5.0199999999999996</v>
+      </c>
+      <c r="AC60" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="AD60" s="6">
+        <v>-1.52</v>
+      </c>
+      <c r="AE60" s="6">
+        <v>-0.35</v>
+      </c>
+      <c r="AF60" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="61" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S61" s="11">
+        <v>202007</v>
+      </c>
+      <c r="T61" s="6">
+        <v>43</v>
+      </c>
+      <c r="U61" s="6">
+        <v>5.87</v>
+      </c>
+      <c r="V61" s="6">
+        <v>18.43</v>
+      </c>
+      <c r="W61" s="6">
+        <v>2.92</v>
+      </c>
+      <c r="X61" s="6">
+        <v>-4.8</v>
+      </c>
+      <c r="Y61" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="Z61" s="6">
+        <v>6.91</v>
+      </c>
+      <c r="AA61" s="6">
+        <v>5.07</v>
+      </c>
+      <c r="AB61" s="6">
+        <v>6.37</v>
+      </c>
+      <c r="AC61" s="6">
+        <v>9.51</v>
+      </c>
+      <c r="AD61" s="6">
+        <v>4.43</v>
+      </c>
+      <c r="AE61" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="AF61" s="7">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="62" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S62" s="11">
+        <v>202008</v>
+      </c>
+      <c r="T62" s="6">
+        <v>44</v>
+      </c>
+      <c r="U62" s="6">
+        <v>4.45</v>
+      </c>
+      <c r="V62" s="6">
+        <v>40.19</v>
+      </c>
+      <c r="W62" s="6">
+        <v>6.99</v>
+      </c>
+      <c r="X62" s="6">
+        <v>-1.07</v>
+      </c>
+      <c r="Y62" s="6">
+        <v>5.17</v>
+      </c>
+      <c r="Z62" s="6">
+        <v>10.56</v>
+      </c>
+      <c r="AA62" s="6">
+        <v>5.51</v>
+      </c>
+      <c r="AB62" s="6">
+        <v>-2.25</v>
+      </c>
+      <c r="AC62" s="6">
+        <v>8.16</v>
+      </c>
+      <c r="AD62" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AE62" s="6">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AF62" s="7">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S63" s="11">
+        <v>202009</v>
+      </c>
+      <c r="T63" s="6">
+        <v>45</v>
+      </c>
+      <c r="U63" s="6">
+        <v>-1.98</v>
+      </c>
+      <c r="V63" s="6">
+        <v>-8.9700000000000006</v>
+      </c>
+      <c r="W63" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="X63" s="6">
+        <v>-14.9</v>
+      </c>
+      <c r="Y63" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="Z63" s="6">
+        <v>-5.16</v>
+      </c>
+      <c r="AA63" s="6">
+        <v>-2.12</v>
+      </c>
+      <c r="AB63" s="6">
+        <v>-0.27</v>
+      </c>
+      <c r="AC63" s="6">
+        <v>-3.87</v>
+      </c>
+      <c r="AD63" s="6">
+        <v>-1.48</v>
+      </c>
+      <c r="AE63" s="6">
+        <v>-4.12</v>
+      </c>
+      <c r="AF63" s="7">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="64" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S64" s="11">
+        <v>202010</v>
+      </c>
+      <c r="T64" s="6">
+        <v>46</v>
+      </c>
+      <c r="U64" s="6">
+        <v>-2.56</v>
+      </c>
+      <c r="V64" s="6">
+        <v>-3.29</v>
+      </c>
+      <c r="W64" s="6">
+        <v>-0.8</v>
+      </c>
+      <c r="X64" s="6">
+        <v>-4.53</v>
+      </c>
+      <c r="Y64" s="6">
+        <v>-0.68</v>
+      </c>
+      <c r="Z64" s="6">
+        <v>-1.84</v>
+      </c>
+      <c r="AA64" s="6">
+        <v>-3.85</v>
+      </c>
+      <c r="AB64" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="AC64" s="6">
+        <v>-2.57</v>
+      </c>
+      <c r="AD64" s="6">
+        <v>-4.42</v>
+      </c>
+      <c r="AE64" s="6">
+        <v>-1.01</v>
+      </c>
+      <c r="AF64" s="7">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="65" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S65" s="11">
+        <v>202011</v>
+      </c>
+      <c r="T65" s="6">
+        <v>47</v>
+      </c>
+      <c r="U65" s="6">
+        <v>10.02</v>
+      </c>
+      <c r="V65" s="6">
+        <v>33.85</v>
+      </c>
+      <c r="W65" s="6">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="X65" s="6">
+        <v>28.46</v>
+      </c>
+      <c r="Y65" s="6">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="Z65" s="6">
+        <v>10.85</v>
+      </c>
+      <c r="AA65" s="6">
+        <v>14.43</v>
+      </c>
+      <c r="AB65" s="6">
+        <v>2.63</v>
+      </c>
+      <c r="AC65" s="6">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="AD65" s="6">
+        <v>9.52</v>
+      </c>
+      <c r="AE65" s="6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF65" s="7">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="66" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S66" s="11">
+        <v>202012</v>
+      </c>
+      <c r="T66" s="6">
+        <v>48</v>
+      </c>
+      <c r="U66" s="6">
+        <v>5</v>
+      </c>
+      <c r="V66" s="6">
+        <v>15.65</v>
+      </c>
+      <c r="W66" s="6">
+        <v>2.93</v>
+      </c>
+      <c r="X66" s="6">
+        <v>6.16</v>
+      </c>
+      <c r="Y66" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="Z66" s="6">
+        <v>4.95</v>
+      </c>
+      <c r="AA66" s="6">
+        <v>5.29</v>
+      </c>
+      <c r="AB66" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="AC66" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="AD66" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AE66" s="6">
+        <v>6.92</v>
+      </c>
+      <c r="AF66" s="7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="67" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S67" s="11">
+        <v>202101</v>
+      </c>
+      <c r="T67" s="6">
+        <v>49</v>
+      </c>
+      <c r="U67" s="6">
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="V67" s="6">
+        <v>11.45</v>
+      </c>
+      <c r="W67" s="6">
+        <v>-1.53</v>
+      </c>
+      <c r="X67" s="6">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Y67" s="6">
+        <v>-4.37</v>
+      </c>
+      <c r="Z67" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AA67" s="6">
+        <v>-3.42</v>
+      </c>
+      <c r="AB67" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="AC67" s="6">
         <v>0</v>
       </c>
+      <c r="AD67" s="6">
+        <v>3.22</v>
+      </c>
+      <c r="AE67" s="6">
+        <v>-3.01</v>
+      </c>
+      <c r="AF67" s="7">
+        <v>-2.54</v>
+      </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="10">
-        <f>AVERAGE(E42:E110)</f>
-        <v>0.51231884057971044</v>
-      </c>
-      <c r="F37" s="4">
-        <f t="shared" ref="F37:P37" si="0">AVERAGE(F42:F110)</f>
-        <v>2.2234782608695656</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.80101449275362369</v>
-      </c>
-      <c r="H37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.94840579710144923</v>
-      </c>
-      <c r="I37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66362318840579759</v>
-      </c>
-      <c r="J37" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4984057971014493</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" si="0"/>
-        <v>8.2753623188405886E-2</v>
-      </c>
-      <c r="L37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.69971014492753625</v>
-      </c>
-      <c r="M37" s="4">
-        <f t="shared" si="0"/>
-        <v>1.133623188405797</v>
-      </c>
-      <c r="N37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.89913043478260912</v>
-      </c>
-      <c r="O37" s="4">
-        <f t="shared" si="0"/>
-        <v>0.86246376811594161</v>
-      </c>
-      <c r="P37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.65159420289855086</v>
+    <row r="68" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S68" s="11">
+        <v>202102</v>
+      </c>
+      <c r="T68" s="6">
+        <v>50</v>
+      </c>
+      <c r="U68" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="V68" s="6">
+        <v>-7.93</v>
+      </c>
+      <c r="W68" s="6">
+        <v>7.75</v>
+      </c>
+      <c r="X68" s="6">
+        <v>23.31</v>
+      </c>
+      <c r="Y68" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Z68" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="AA68" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="AB68" s="6">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AC68" s="6">
+        <v>-1.64</v>
+      </c>
+      <c r="AD68" s="6">
+        <v>-1.35</v>
+      </c>
+      <c r="AE68" s="6">
+        <v>10.82</v>
+      </c>
+      <c r="AF68" s="7">
+        <v>7.76</v>
       </c>
     </row>
-    <row r="38" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="12">
-        <f>_xlfn.STDEV.P(E42:E110)</f>
-        <v>4.1654152827840383</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" ref="F38:P38" si="1">_xlfn.STDEV.P(F42:F110)</f>
-        <v>11.095142928207526</v>
-      </c>
-      <c r="G38" s="8">
-        <f t="shared" si="1"/>
-        <v>6.0750022711100975</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>10.144599566127184</v>
-      </c>
-      <c r="I38" s="8">
-        <f t="shared" si="1"/>
-        <v>4.5552460507255477</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" si="1"/>
-        <v>5.8723228555135387</v>
-      </c>
-      <c r="K38" s="8">
-        <f t="shared" si="1"/>
-        <v>5.0090109770576436</v>
-      </c>
-      <c r="L38" s="8">
-        <f t="shared" si="1"/>
-        <v>4.4182451008354553</v>
-      </c>
-      <c r="M38" s="8">
-        <f t="shared" si="1"/>
-        <v>5.4033851362342098</v>
-      </c>
-      <c r="N38" s="8">
-        <f t="shared" si="1"/>
-        <v>4.352672588668506</v>
-      </c>
-      <c r="O38" s="8">
-        <f t="shared" si="1"/>
-        <v>5.7614099536905332</v>
-      </c>
-      <c r="P38" s="9">
-        <f t="shared" si="1"/>
-        <v>5.5682116982464054</v>
+    <row r="69" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S69" s="11">
+        <v>202103</v>
+      </c>
+      <c r="T69" s="6">
+        <v>51</v>
+      </c>
+      <c r="U69" s="6">
+        <v>7.21</v>
+      </c>
+      <c r="V69" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="W69" s="6">
+        <v>7.67</v>
+      </c>
+      <c r="X69" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="Y69" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="Z69" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="AA69" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="AB69" s="6">
+        <v>10.35</v>
+      </c>
+      <c r="AC69" s="6">
+        <v>5.54</v>
+      </c>
+      <c r="AD69" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="AE69" s="6">
+        <v>5.73</v>
+      </c>
+      <c r="AF69" s="7">
+        <v>5.34</v>
       </c>
     </row>
-    <row r="39" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="25"/>
+    <row r="70" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S70" s="11">
+        <v>202104</v>
+      </c>
+      <c r="T70" s="6">
+        <v>52</v>
+      </c>
+      <c r="U70" s="6">
+        <v>3.36</v>
+      </c>
+      <c r="V70" s="6">
+        <v>4.37</v>
+      </c>
+      <c r="W70" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="X70" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="Y70" s="6">
+        <v>2.86</v>
+      </c>
+      <c r="Z70" s="6">
+        <v>6.49</v>
+      </c>
+      <c r="AA70" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="AB70" s="6">
+        <v>3.98</v>
+      </c>
+      <c r="AC70" s="6">
+        <v>7.06</v>
+      </c>
+      <c r="AD70" s="6">
+        <v>2.87</v>
+      </c>
+      <c r="AE70" s="6">
+        <v>6.27</v>
+      </c>
+      <c r="AF70" s="7">
+        <v>5.37</v>
+      </c>
     </row>
-    <row r="40" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="30"/>
+    <row r="71" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S71" s="11">
+        <v>202105</v>
+      </c>
+      <c r="T71" s="6">
+        <v>53</v>
+      </c>
+      <c r="U71" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="V71" s="6">
+        <v>-5.26</v>
+      </c>
+      <c r="W71" s="6">
+        <v>2.94</v>
+      </c>
+      <c r="X71" s="6">
+        <v>6.13</v>
+      </c>
+      <c r="Y71" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z71" s="6">
+        <v>-0.87</v>
+      </c>
+      <c r="AA71" s="6">
+        <v>-0.83</v>
+      </c>
+      <c r="AB71" s="6">
+        <v>-1.17</v>
+      </c>
+      <c r="AC71" s="6">
+        <v>-2.21</v>
+      </c>
+      <c r="AD71" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AE71" s="6">
+        <v>3.07</v>
+      </c>
+      <c r="AF71" s="7">
+        <v>2.65</v>
+      </c>
     </row>
-    <row r="41" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="27"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="16" t="s">
+    <row r="72" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S72" s="11">
+        <v>202106</v>
+      </c>
+      <c r="T72" s="6">
+        <v>54</v>
+      </c>
+      <c r="U72" s="6">
+        <v>-0.74</v>
+      </c>
+      <c r="V72" s="6">
+        <v>5.66</v>
+      </c>
+      <c r="W72" s="6">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="X72" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="Y72" s="6">
+        <v>-2.37</v>
+      </c>
+      <c r="Z72" s="6">
+        <v>6.97</v>
+      </c>
+      <c r="AA72" s="6">
+        <v>-0.12</v>
+      </c>
+      <c r="AB72" s="6">
+        <v>-1.42</v>
+      </c>
+      <c r="AC72" s="6">
+        <v>2.84</v>
+      </c>
+      <c r="AD72" s="6">
+        <v>4.28</v>
+      </c>
+      <c r="AE72" s="6">
+        <v>-2.15</v>
+      </c>
+      <c r="AF72" s="7">
+        <v>-2.73</v>
+      </c>
+    </row>
+    <row r="73" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S73" s="11">
+        <v>202107</v>
+      </c>
+      <c r="T73" s="6">
+        <v>55</v>
+      </c>
+      <c r="U73" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="V73" s="6">
+        <v>-0.98</v>
+      </c>
+      <c r="W73" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="X73" s="6">
+        <v>-8.61</v>
+      </c>
+      <c r="Y73" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="Z73" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="AA73" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AB73" s="6">
+        <v>2.98</v>
+      </c>
+      <c r="AC73" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="AD73" s="6">
+        <v>3.04</v>
+      </c>
+      <c r="AE73" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="AF73" s="7">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="74" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S74" s="11">
+        <v>202108</v>
+      </c>
+      <c r="T74" s="6">
+        <v>56</v>
+      </c>
+      <c r="U74" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="V74" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="W74" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="X74" s="6">
+        <v>-1.35</v>
+      </c>
+      <c r="Y74" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Z74" s="6">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AA74" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="AB74" s="6">
+        <v>3.23</v>
+      </c>
+      <c r="AC74" s="6">
+        <v>2.36</v>
+      </c>
+      <c r="AD74" s="6">
+        <v>2.81</v>
+      </c>
+      <c r="AE74" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="AF74" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S75" s="11">
+        <v>202109</v>
+      </c>
+      <c r="T75" s="6">
+        <v>57</v>
+      </c>
+      <c r="U75" s="6">
+        <v>-4.58</v>
+      </c>
+      <c r="V75" s="6">
+        <v>2.81</v>
+      </c>
+      <c r="W75" s="6">
+        <v>-6.34</v>
+      </c>
+      <c r="X75" s="6">
+        <v>10.49</v>
+      </c>
+      <c r="Y75" s="6">
+        <v>-4.97</v>
+      </c>
+      <c r="Z75" s="6">
+        <v>-6.21</v>
+      </c>
+      <c r="AA75" s="6">
+        <v>-5.64</v>
+      </c>
+      <c r="AB75" s="6">
+        <v>-4.84</v>
+      </c>
+      <c r="AC75" s="6">
+        <v>-4.3</v>
+      </c>
+      <c r="AD75" s="6">
+        <v>-5.99</v>
+      </c>
+      <c r="AE75" s="6">
+        <v>-1.58</v>
+      </c>
+      <c r="AF75" s="7">
+        <v>-3.46</v>
+      </c>
+    </row>
+    <row r="76" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S76" s="11">
+        <v>202110</v>
+      </c>
+      <c r="T76" s="6">
+        <v>58</v>
+      </c>
+      <c r="U76" s="6">
+        <v>3.78</v>
+      </c>
+      <c r="V76" s="6">
+        <v>30.3</v>
+      </c>
+      <c r="W76" s="6">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="X76" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="Y76" s="6">
+        <v>6.03</v>
+      </c>
+      <c r="Z76" s="6">
+        <v>7.71</v>
+      </c>
+      <c r="AA76" s="6">
+        <v>-4.29</v>
+      </c>
+      <c r="AB76" s="6">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="AC76" s="6">
+        <v>5.01</v>
+      </c>
+      <c r="AD76" s="6">
+        <v>2.31</v>
+      </c>
+      <c r="AE76" s="6">
+        <v>7</v>
+      </c>
+      <c r="AF76" s="7">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="77" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S77" s="11">
+        <v>202111</v>
+      </c>
+      <c r="T77" s="6">
+        <v>59</v>
+      </c>
+      <c r="U77" s="6">
+        <v>-3.86</v>
+      </c>
+      <c r="V77" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="W77" s="6">
+        <v>-1.07</v>
+      </c>
+      <c r="X77" s="6">
+        <v>-5.4</v>
+      </c>
+      <c r="Y77" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="Z77" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="AA77" s="6">
+        <v>-7.25</v>
+      </c>
+      <c r="AB77" s="6">
+        <v>-1.96</v>
+      </c>
+      <c r="AC77" s="6">
+        <v>1.41</v>
+      </c>
+      <c r="AD77" s="6">
+        <v>-4.29</v>
+      </c>
+      <c r="AE77" s="6">
+        <v>-5.73</v>
+      </c>
+      <c r="AF77" s="7">
+        <v>-3.79</v>
+      </c>
+    </row>
+    <row r="78" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S78" s="11">
+        <v>202112</v>
+      </c>
+      <c r="T78" s="6">
+        <v>60</v>
+      </c>
+      <c r="U78" s="6">
+        <v>7.97</v>
+      </c>
+      <c r="V78" s="6">
+        <v>-4.54</v>
+      </c>
+      <c r="W78" s="6">
         <v>4</v>
       </c>
-      <c r="G41" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M41" s="16" t="s">
+      <c r="X78" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="Y78" s="6">
+        <v>9.66</v>
+      </c>
+      <c r="Z78" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="AA78" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="AB78" s="6">
+        <v>8.57</v>
+      </c>
+      <c r="AC78" s="6">
+        <v>1.29</v>
+      </c>
+      <c r="AD78" s="6">
+        <v>6.72</v>
+      </c>
+      <c r="AE78" s="6">
+        <v>4.72</v>
+      </c>
+      <c r="AF78" s="7">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="79" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S79" s="11">
+        <v>202201</v>
+      </c>
+      <c r="T79" s="6">
+        <v>61</v>
+      </c>
+      <c r="U79" s="6">
+        <v>-0.73</v>
+      </c>
+      <c r="V79" s="6">
+        <v>-10.23</v>
+      </c>
+      <c r="W79" s="6">
+        <v>-5.69</v>
+      </c>
+      <c r="X79" s="6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Y79" s="6">
+        <v>-6.61</v>
+      </c>
+      <c r="Z79" s="6">
+        <v>-8.31</v>
+      </c>
+      <c r="AA79" s="6">
+        <v>-1.98</v>
+      </c>
+      <c r="AB79" s="6">
+        <v>-2.1</v>
+      </c>
+      <c r="AC79" s="6">
+        <v>-9</v>
+      </c>
+      <c r="AD79" s="6">
+        <v>-8.66</v>
+      </c>
+      <c r="AE79" s="6">
+        <v>-0.72</v>
+      </c>
+      <c r="AF79" s="7">
+        <v>-6.17</v>
+      </c>
+    </row>
+    <row r="80" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S80" s="11">
+        <v>202202</v>
+      </c>
+      <c r="T80" s="6">
+        <v>62</v>
+      </c>
+      <c r="U80" s="6">
+        <v>-0.51</v>
+      </c>
+      <c r="V80" s="6">
+        <v>-7.19</v>
+      </c>
+      <c r="W80" s="6">
+        <v>-0.33</v>
+      </c>
+      <c r="X80" s="6">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="Y80" s="6">
+        <v>-3.52</v>
+      </c>
+      <c r="Z80" s="6">
+        <v>-5.2</v>
+      </c>
+      <c r="AA80" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="AB80" s="6">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="AC80" s="6">
+        <v>-1.56</v>
+      </c>
+      <c r="AD80" s="6">
+        <v>-1.01</v>
+      </c>
+      <c r="AE80" s="6">
+        <v>-1.7</v>
+      </c>
+      <c r="AF80" s="7">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="81" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S81" s="11">
+        <v>202203</v>
+      </c>
+      <c r="T81" s="6">
+        <v>63</v>
+      </c>
+      <c r="U81" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="V81" s="6">
+        <v>14.67</v>
+      </c>
+      <c r="W81" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="X81" s="6">
+        <v>9.83</v>
+      </c>
+      <c r="Y81" s="6">
+        <v>-0.25</v>
+      </c>
+      <c r="Z81" s="6">
+        <v>3.23</v>
+      </c>
+      <c r="AA81" s="6">
+        <v>-2.46</v>
+      </c>
+      <c r="AB81" s="6">
+        <v>9.68</v>
+      </c>
+      <c r="AC81" s="6">
+        <v>2.91</v>
+      </c>
+      <c r="AD81" s="6">
+        <v>5.13</v>
+      </c>
+      <c r="AE81" s="6">
+        <v>-0.99</v>
+      </c>
+      <c r="AF81" s="7">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S82" s="11">
+        <v>202204</v>
+      </c>
+      <c r="T82" s="6">
+        <v>64</v>
+      </c>
+      <c r="U82" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V82" s="6">
+        <v>-16.97</v>
+      </c>
+      <c r="W82" s="6">
+        <v>-7.92</v>
+      </c>
+      <c r="X82" s="6">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="Y82" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="Z82" s="6">
+        <v>-12.66</v>
+      </c>
+      <c r="AA82" s="6">
+        <v>-10.7</v>
+      </c>
+      <c r="AB82" s="6">
+        <v>-3.71</v>
+      </c>
+      <c r="AC82" s="6">
+        <v>-9.91</v>
+      </c>
+      <c r="AD82" s="6">
+        <v>-6.8</v>
+      </c>
+      <c r="AE82" s="6">
+        <v>-7.99</v>
+      </c>
+      <c r="AF82" s="7">
+        <v>-10.29</v>
+      </c>
+    </row>
+    <row r="83" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S83" s="11">
+        <v>202205</v>
+      </c>
+      <c r="T83" s="6">
+        <v>65</v>
+      </c>
+      <c r="U83" s="6">
+        <v>-1.68</v>
+      </c>
+      <c r="V83" s="6">
+        <v>-8.84</v>
+      </c>
+      <c r="W83" s="6">
+        <v>-0.19</v>
+      </c>
+      <c r="X83" s="6">
+        <v>15.39</v>
+      </c>
+      <c r="Y83" s="6">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="Z83" s="6">
+        <v>-2.16</v>
+      </c>
+      <c r="AA83" s="6">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="AB83" s="6">
+        <v>4.79</v>
+      </c>
+      <c r="AC83" s="6">
+        <v>-4.12</v>
+      </c>
+      <c r="AD83" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="AE83" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="AF83" s="7">
+        <v>-2.96</v>
+      </c>
+    </row>
+    <row r="84" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S84" s="11">
+        <v>202206</v>
+      </c>
+      <c r="T84" s="6">
+        <v>66</v>
+      </c>
+      <c r="U84" s="6">
+        <v>-3.9</v>
+      </c>
+      <c r="V84" s="6">
+        <v>-11.97</v>
+      </c>
+      <c r="W84" s="6">
+        <v>-10.06</v>
+      </c>
+      <c r="X84" s="6">
+        <v>-16.25</v>
+      </c>
+      <c r="Y84" s="6">
+        <v>-8.1199999999999992</v>
+      </c>
+      <c r="Z84" s="6">
+        <v>-8.3699999999999992</v>
+      </c>
+      <c r="AA84" s="6">
+        <v>-6.72</v>
+      </c>
+      <c r="AB84" s="6">
+        <v>-6.55</v>
+      </c>
+      <c r="AC84" s="6">
+        <v>-7.65</v>
+      </c>
+      <c r="AD84" s="6">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="AE84" s="6">
+        <v>-9.0500000000000007</v>
+      </c>
+      <c r="AF84" s="7">
+        <v>-11.29</v>
+      </c>
+    </row>
+    <row r="85" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S85" s="11">
+        <v>202207</v>
+      </c>
+      <c r="T85" s="6">
+        <v>67</v>
+      </c>
+      <c r="U85" s="6">
+        <v>4.21</v>
+      </c>
+      <c r="V85" s="6">
+        <v>27.47</v>
+      </c>
+      <c r="W85" s="6">
+        <v>11.02</v>
+      </c>
+      <c r="X85" s="6">
+        <v>10.49</v>
+      </c>
+      <c r="Y85" s="6">
+        <v>3.17</v>
+      </c>
+      <c r="Z85" s="6">
+        <v>11.63</v>
+      </c>
+      <c r="AA85" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="AB85" s="6">
+        <v>6.26</v>
+      </c>
+      <c r="AC85" s="6">
+        <v>14.64</v>
+      </c>
+      <c r="AD85" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="AE85" s="6">
+        <v>7.38</v>
+      </c>
+      <c r="AF85" s="7">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="86" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S86" s="11">
+        <v>202208</v>
+      </c>
+      <c r="T86" s="6">
+        <v>68</v>
+      </c>
+      <c r="U86" s="6">
+        <v>-1.89</v>
+      </c>
+      <c r="V86" s="6">
+        <v>-5.77</v>
+      </c>
+      <c r="W86" s="6">
+        <v>-4.37</v>
+      </c>
+      <c r="X86" s="6">
+        <v>3.32</v>
+      </c>
+      <c r="Y86" s="6">
+        <v>-1.61</v>
+      </c>
+      <c r="Z86" s="6">
+        <v>-5.12</v>
+      </c>
+      <c r="AA86" s="6">
+        <v>-3.01</v>
+      </c>
+      <c r="AB86" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="AC86" s="6">
+        <v>-3.12</v>
+      </c>
+      <c r="AD86" s="6">
+        <v>-5.07</v>
+      </c>
+      <c r="AE86" s="6">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="AF86" s="7">
+        <v>-3.94</v>
+      </c>
+    </row>
+    <row r="87" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S87" s="11">
+        <v>202209</v>
+      </c>
+      <c r="T87" s="6">
+        <v>69</v>
+      </c>
+      <c r="U87" s="6">
+        <v>-8.32</v>
+      </c>
+      <c r="V87" s="6">
+        <v>-6.68</v>
+      </c>
+      <c r="W87" s="6">
+        <v>-11.88</v>
+      </c>
+      <c r="X87" s="6">
+        <v>-9.1300000000000008</v>
+      </c>
+      <c r="Y87" s="6">
+        <v>-10.73</v>
+      </c>
+      <c r="Z87" s="6">
+        <v>-11.48</v>
+      </c>
+      <c r="AA87" s="6">
+        <v>-13.94</v>
+      </c>
+      <c r="AB87" s="6">
+        <v>-11.65</v>
+      </c>
+      <c r="AC87" s="6">
+        <v>-7.61</v>
+      </c>
+      <c r="AD87" s="6">
+        <v>-1.91</v>
+      </c>
+      <c r="AE87" s="6">
+        <v>-7.74</v>
+      </c>
+      <c r="AF87" s="7">
+        <v>-8.27</v>
+      </c>
+    </row>
+    <row r="88" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S88" s="11">
+        <v>202210</v>
+      </c>
+      <c r="T88">
+        <v>70</v>
+      </c>
+      <c r="U88" s="6">
+        <v>9.98</v>
+      </c>
+      <c r="V88" s="6">
+        <v>-6.61</v>
+      </c>
+      <c r="W88" s="6">
+        <v>14.84</v>
+      </c>
+      <c r="X88" s="6">
+        <v>23.61</v>
+      </c>
+      <c r="Y88" s="6">
+        <v>6.91</v>
+      </c>
+      <c r="Z88" s="6">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="AA88" s="6">
+        <v>10.58</v>
+      </c>
+      <c r="AB88" s="6">
+        <v>3.51</v>
+      </c>
+      <c r="AC88" s="6">
+        <v>4.25</v>
+      </c>
+      <c r="AD88" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AE88" s="6">
+        <v>12.74</v>
+      </c>
+      <c r="AF88" s="7">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="89" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S89" s="11">
+        <v>202211</v>
+      </c>
+      <c r="T89">
+        <v>71</v>
+      </c>
+      <c r="U89" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="V89" s="6">
+        <v>-8.1</v>
+      </c>
+      <c r="W89" s="6">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="X89" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="Y89" s="6">
+        <v>9.91</v>
+      </c>
+      <c r="Z89" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="AA89" s="6">
+        <v>2.15</v>
+      </c>
+      <c r="AB89" s="6">
+        <v>6.78</v>
+      </c>
+      <c r="AC89" s="6">
+        <v>3.85</v>
+      </c>
+      <c r="AD89" s="6">
+        <v>5.35</v>
+      </c>
+      <c r="AE89" s="6">
+        <v>4.79</v>
+      </c>
+      <c r="AF89" s="7">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="90" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S90" s="11">
+        <v>202212</v>
+      </c>
+      <c r="T90">
+        <v>72</v>
+      </c>
+      <c r="U90" s="6">
+        <v>-2.66</v>
+      </c>
+      <c r="V90" s="6">
+        <v>-28.07</v>
+      </c>
+      <c r="W90" s="6">
+        <v>-2.42</v>
+      </c>
+      <c r="X90" s="6">
+        <v>-4.17</v>
+      </c>
+      <c r="Y90" s="6">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="Z90" s="6">
+        <v>-7.95</v>
+      </c>
+      <c r="AA90" s="6">
+        <v>-6.81</v>
+      </c>
+      <c r="AB90" s="6">
+        <v>-1.21</v>
+      </c>
+      <c r="AC90" s="6">
+        <v>-7.97</v>
+      </c>
+      <c r="AD90" s="6">
+        <v>-1.74</v>
+      </c>
+      <c r="AE90" s="6">
+        <v>-5.54</v>
+      </c>
+      <c r="AF90" s="7">
+        <v>-5.05</v>
+      </c>
+    </row>
+    <row r="91" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S91" s="11">
+        <v>202301</v>
+      </c>
+      <c r="T91">
+        <v>73</v>
+      </c>
+      <c r="U91" s="6">
+        <v>-0.37</v>
+      </c>
+      <c r="V91" s="6">
+        <v>29.03</v>
+      </c>
+      <c r="W91" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="X91" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="Y91" s="6">
+        <v>3.08</v>
+      </c>
+      <c r="Z91" s="6">
+        <v>9.67</v>
+      </c>
+      <c r="AA91" s="6">
+        <v>13.53</v>
+      </c>
+      <c r="AB91" s="6">
+        <v>-1.24</v>
+      </c>
+      <c r="AC91" s="6">
+        <v>9.74</v>
+      </c>
+      <c r="AD91" s="6">
+        <v>-1.03</v>
+      </c>
+      <c r="AE91" s="6">
+        <v>6.37</v>
+      </c>
+      <c r="AF91" s="7">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="92" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S92" s="11">
+        <v>202302</v>
+      </c>
+      <c r="T92">
+        <v>74</v>
+      </c>
+      <c r="U92" s="6">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="V92" s="6">
         <v>11</v>
       </c>
-      <c r="N41" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P41" s="17" t="s">
-        <v>14</v>
+      <c r="W92" s="6">
+        <v>-1.06</v>
+      </c>
+      <c r="X92" s="6">
+        <v>-6.84</v>
+      </c>
+      <c r="Y92" s="6">
+        <v>-3.61</v>
+      </c>
+      <c r="Z92" s="6">
+        <v>-0.19</v>
+      </c>
+      <c r="AA92" s="6">
+        <v>-6.5</v>
+      </c>
+      <c r="AB92" s="6">
+        <v>-5.32</v>
+      </c>
+      <c r="AC92" s="6">
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="AD92" s="6">
+        <v>-4.29</v>
+      </c>
+      <c r="AE92" s="6">
+        <v>-2.83</v>
+      </c>
+      <c r="AF92" s="7">
+        <v>-2.59</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C42" s="10">
-        <v>201701</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1.63</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2.74</v>
-      </c>
-      <c r="G42" s="4">
-        <v>3.19</v>
-      </c>
-      <c r="H42" s="4">
-        <v>-4.3600000000000003</v>
-      </c>
-      <c r="I42" s="4">
+    <row r="93" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S93" s="11">
+        <v>202303</v>
+      </c>
+      <c r="T93">
+        <v>75</v>
+      </c>
+      <c r="U93" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="V93" s="6">
+        <v>-0.62</v>
+      </c>
+      <c r="W93" s="6">
+        <v>-0.17</v>
+      </c>
+      <c r="X93" s="6">
+        <v>-0.32</v>
+      </c>
+      <c r="Y93" s="6">
+        <v>1.61</v>
+      </c>
+      <c r="Z93" s="6">
+        <v>10.42</v>
+      </c>
+      <c r="AA93" s="6">
+        <v>-0.13</v>
+      </c>
+      <c r="AB93" s="6">
+        <v>3.89</v>
+      </c>
+      <c r="AC93" s="6">
+        <v>3.49</v>
+      </c>
+      <c r="AD93" s="6">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AE93" s="6">
+        <v>-8.66</v>
+      </c>
+      <c r="AF93" s="7">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="94" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S94" s="11">
+        <v>202304</v>
+      </c>
+      <c r="T94">
+        <v>76</v>
+      </c>
+      <c r="U94" s="6">
+        <v>3.16</v>
+      </c>
+      <c r="V94" s="6">
+        <v>-15.24</v>
+      </c>
+      <c r="W94" s="6">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="X94" s="6">
+        <v>2.59</v>
+      </c>
+      <c r="Y94" s="6">
+        <v>2.62</v>
+      </c>
+      <c r="Z94" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA94" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="AB94" s="6">
+        <v>1.72</v>
+      </c>
+      <c r="AC94" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="AD94" s="6">
+        <v>4.12</v>
+      </c>
+      <c r="AE94" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="AF94" s="7">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="95" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S95" s="11">
+        <v>202305</v>
+      </c>
+      <c r="T95">
+        <v>77</v>
+      </c>
+      <c r="U95" s="6">
+        <v>-5.35</v>
+      </c>
+      <c r="V95" s="6">
+        <v>13.52</v>
+      </c>
+      <c r="W95" s="6">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="X95" s="6">
+        <v>-9.51</v>
+      </c>
+      <c r="Y95" s="6">
+        <v>-8.5299999999999994</v>
+      </c>
+      <c r="Z95" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="AA95" s="6">
+        <v>-9.4</v>
+      </c>
+      <c r="AB95" s="6">
+        <v>-5.82</v>
+      </c>
+      <c r="AC95" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="AD95" s="6">
+        <v>-3.67</v>
+      </c>
+      <c r="AE95" s="6">
+        <v>-3.77</v>
+      </c>
+      <c r="AF95" s="7">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="96" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S96" s="11">
+        <v>202306</v>
+      </c>
+      <c r="T96">
+        <v>78</v>
+      </c>
+      <c r="U96" s="6">
+        <v>2.84</v>
+      </c>
+      <c r="V96" s="6">
+        <v>24.66</v>
+      </c>
+      <c r="W96" s="6">
+        <v>11.58</v>
+      </c>
+      <c r="X96" s="6">
+        <v>6.42</v>
+      </c>
+      <c r="Y96" s="6">
+        <v>8.69</v>
+      </c>
+      <c r="Z96" s="6">
+        <v>5.87</v>
+      </c>
+      <c r="AA96" s="6">
+        <v>4.63</v>
+      </c>
+      <c r="AB96" s="6">
+        <v>2.61</v>
+      </c>
+      <c r="AC96" s="6">
+        <v>7.89</v>
+      </c>
+      <c r="AD96" s="6">
+        <v>4.66</v>
+      </c>
+      <c r="AE96" s="6">
+        <v>5.87</v>
+      </c>
+      <c r="AF96" s="7">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="97" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S97" s="11">
+        <v>202307</v>
+      </c>
+      <c r="T97">
+        <v>79</v>
+      </c>
+      <c r="U97" s="6">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="V97" s="6">
+        <v>2.73</v>
+      </c>
+      <c r="W97" s="6">
         <v>3.81</v>
       </c>
-      <c r="J42" s="4">
-        <v>4.67</v>
-      </c>
-      <c r="K42" s="4">
-        <v>2.87</v>
-      </c>
-      <c r="L42" s="4">
-        <v>1.08</v>
-      </c>
-      <c r="M42" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="N42" s="4">
-        <v>2.02</v>
-      </c>
-      <c r="O42" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P42" s="5">
-        <v>1.54</v>
+      <c r="X97" s="6">
+        <v>7.34</v>
+      </c>
+      <c r="Y97" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="Z97" s="6">
+        <v>4.32</v>
+      </c>
+      <c r="AA97" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="AB97" s="6">
+        <v>2.79</v>
+      </c>
+      <c r="AC97" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AD97" s="6">
+        <v>-0.11</v>
+      </c>
+      <c r="AE97" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="AF97" s="7">
+        <v>3.51</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C43" s="11">
-        <v>201702</v>
-      </c>
-      <c r="D43" s="6">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6">
-        <v>3.69</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="G43" s="6">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="H43" s="6">
-        <v>-2.4</v>
-      </c>
-      <c r="I43" s="6">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="J43" s="6">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="K43" s="6">
+    <row r="98" spans="19:32" x14ac:dyDescent="0.3">
+      <c r="S98" s="11">
+        <v>202308</v>
+      </c>
+      <c r="T98">
+        <v>80</v>
+      </c>
+      <c r="U98" s="6">
+        <v>-3.77</v>
+      </c>
+      <c r="V98" s="6">
+        <v>-4.3099999999999996</v>
+      </c>
+      <c r="W98" s="6">
+        <v>-2.21</v>
+      </c>
+      <c r="X98" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="Y98" s="6">
+        <v>-2.75</v>
+      </c>
+      <c r="Z98" s="6">
+        <v>-1.67</v>
+      </c>
+      <c r="AA98" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L43" s="6">
-        <v>4.05</v>
-      </c>
-      <c r="M43" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="N43" s="6">
-        <v>6.97</v>
-      </c>
-      <c r="O43" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="P43" s="7">
-        <v>2.34</v>
+      <c r="AB98" s="6">
+        <v>-5.29</v>
+      </c>
+      <c r="AC98" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="AD98" s="6">
+        <v>-0.22</v>
+      </c>
+      <c r="AE98" s="6">
+        <v>-3.61</v>
+      </c>
+      <c r="AF98" s="7">
+        <v>-2.98</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C44" s="11">
-        <v>201703</v>
-      </c>
-      <c r="D44" s="6">
-        <v>3</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="F44" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="G44" s="6">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="H44" s="6">
-        <v>-1.19</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="J44" s="6">
-        <v>2.11</v>
-      </c>
-      <c r="K44" s="6">
-        <v>1.05</v>
-      </c>
-      <c r="L44" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="M44" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="N44" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="O44" s="6">
-        <v>-2.29</v>
-      </c>
-      <c r="P44" s="7">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C45" s="11">
-        <v>201704</v>
-      </c>
-      <c r="D45" s="6">
-        <v>4</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="F45" s="6">
-        <v>1.73</v>
-      </c>
-      <c r="G45" s="6">
-        <v>2.71</v>
-      </c>
-      <c r="H45" s="6">
-        <v>-2.66</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J45" s="6">
-        <v>2.71</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="M45" s="6">
-        <v>2.71</v>
-      </c>
-      <c r="N45" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="O45" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="P45" s="7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C46" s="11">
-        <v>201705</v>
-      </c>
-      <c r="D46" s="6">
-        <v>5</v>
-      </c>
-      <c r="E46" s="6">
-        <v>3.12</v>
-      </c>
-      <c r="F46" s="6">
-        <v>-0.51</v>
-      </c>
-      <c r="G46" s="6">
-        <v>1.55</v>
-      </c>
-      <c r="H46" s="6">
-        <v>-3.28</v>
-      </c>
-      <c r="I46" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="J46" s="6">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="K46" s="6">
-        <v>-1.55</v>
-      </c>
-      <c r="L46" s="6">
-        <v>2.56</v>
-      </c>
-      <c r="M46" s="6">
-        <v>1.63</v>
-      </c>
-      <c r="N46" s="6">
-        <v>-0.25</v>
-      </c>
-      <c r="O46" s="6">
-        <v>-1.06</v>
-      </c>
-      <c r="P46" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C47" s="11">
-        <v>201706</v>
-      </c>
-      <c r="D47" s="6">
-        <v>6</v>
-      </c>
-      <c r="E47" s="6">
-        <v>-1.03</v>
-      </c>
-      <c r="F47" s="6">
-        <v>3.51</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1.63</v>
-      </c>
-      <c r="H47" s="6">
-        <v>-0.08</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="J47" s="6">
-        <v>-2.13</v>
-      </c>
-      <c r="K47" s="6">
-        <v>-2.2200000000000002</v>
-      </c>
-      <c r="L47" s="6">
-        <v>-1.89</v>
-      </c>
-      <c r="M47" s="6">
-        <v>-1.9</v>
-      </c>
-      <c r="N47" s="6">
-        <v>5.54</v>
-      </c>
-      <c r="O47" s="6">
-        <v>5.84</v>
-      </c>
-      <c r="P47" s="7">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C48" s="11">
-        <v>201707</v>
-      </c>
-      <c r="D48" s="6">
-        <v>7</v>
-      </c>
-      <c r="E48" s="6">
-        <v>-0.13</v>
-      </c>
-      <c r="F48" s="6">
-        <v>-1.17</v>
-      </c>
-      <c r="G48" s="6">
-        <v>2.31</v>
-      </c>
-      <c r="H48" s="6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="I48" s="6">
-        <v>1.94</v>
-      </c>
-      <c r="J48" s="6">
-        <v>3.77</v>
-      </c>
-      <c r="K48" s="6">
-        <v>5.27</v>
-      </c>
-      <c r="L48" s="6">
-        <v>2.98</v>
-      </c>
-      <c r="M48" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="N48" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="O48" s="6">
-        <v>1.91</v>
-      </c>
-      <c r="P48" s="7">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C49" s="11">
-        <v>201708</v>
-      </c>
-      <c r="D49" s="6">
-        <v>8</v>
-      </c>
-      <c r="E49" s="6">
-        <v>-1.73</v>
-      </c>
-      <c r="F49" s="6">
-        <v>-0.1</v>
-      </c>
-      <c r="G49" s="6">
-        <v>-0.21</v>
-      </c>
-      <c r="H49" s="6">
-        <v>-5.09</v>
-      </c>
-      <c r="I49" s="6">
-        <v>1.17</v>
-      </c>
-      <c r="J49" s="6">
-        <v>3.06</v>
-      </c>
-      <c r="K49" s="6">
-        <v>-2.64</v>
-      </c>
-      <c r="L49" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M49" s="6">
-        <v>-1.67</v>
-      </c>
-      <c r="N49" s="6">
-        <v>2.58</v>
-      </c>
-      <c r="O49" s="6">
-        <v>-1.22</v>
-      </c>
-      <c r="P49" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C50" s="11">
-        <v>201709</v>
-      </c>
-      <c r="D50" s="6">
-        <v>9</v>
-      </c>
-      <c r="E50" s="6">
-        <v>-0.33</v>
-      </c>
-      <c r="F50" s="6">
-        <v>5.28</v>
-      </c>
-      <c r="G50" s="6">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="H50" s="6">
-        <v>10.95</v>
-      </c>
-      <c r="I50" s="6">
-        <v>2.34</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="K50" s="6">
-        <v>-1.67</v>
-      </c>
-      <c r="L50" s="6">
-        <v>-1.97</v>
-      </c>
-      <c r="M50" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="N50" s="6">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="O50" s="6">
-        <v>5.22</v>
-      </c>
-      <c r="P50" s="7">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C51" s="11">
-        <v>201710</v>
-      </c>
-      <c r="D51" s="6">
-        <v>10</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="F51" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="G51" s="6">
-        <v>3.62</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="J51" s="6">
-        <v>6.85</v>
-      </c>
-      <c r="K51" s="6">
+    <row r="99" spans="19:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S99" s="12">
+        <v>202309</v>
+      </c>
+      <c r="T99" s="16">
+        <v>81</v>
+      </c>
+      <c r="U99" s="8">
+        <v>-4.57</v>
+      </c>
+      <c r="V99" s="8">
+        <v>-2.58</v>
+      </c>
+      <c r="W99" s="8">
+        <v>-7.3</v>
+      </c>
+      <c r="X99" s="8">
+        <v>3.17</v>
+      </c>
+      <c r="Y99" s="8">
+        <v>-6.57</v>
+      </c>
+      <c r="Z99" s="8">
+        <v>-5.96</v>
+      </c>
+      <c r="AA99" s="8">
+        <v>-3.22</v>
+      </c>
+      <c r="AB99" s="8">
+        <v>-5.04</v>
+      </c>
+      <c r="AC99" s="8">
         <v>-5.68</v>
       </c>
-      <c r="L51" s="6">
-        <v>3.07</v>
-      </c>
-      <c r="M51" s="6">
-        <v>2.72</v>
-      </c>
-      <c r="N51" s="6">
-        <v>-2.27</v>
-      </c>
-      <c r="O51" s="6">
-        <v>3.39</v>
-      </c>
-      <c r="P51" s="7">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C52" s="11">
-        <v>201711</v>
-      </c>
-      <c r="D52" s="6">
-        <v>11</v>
-      </c>
-      <c r="E52" s="6">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="F52" s="6">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="G52" s="6">
-        <v>3.48</v>
-      </c>
-      <c r="H52" s="6">
-        <v>2.99</v>
-      </c>
-      <c r="I52" s="6">
-        <v>3.8</v>
-      </c>
-      <c r="J52" s="6">
-        <v>1.03</v>
-      </c>
-      <c r="K52" s="6">
-        <v>3.76</v>
-      </c>
-      <c r="L52" s="6">
-        <v>2.42</v>
-      </c>
-      <c r="M52" s="6">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="N52" s="6">
-        <v>2.46</v>
-      </c>
-      <c r="O52" s="6">
-        <v>3.92</v>
-      </c>
-      <c r="P52" s="7">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C53" s="11">
-        <v>201712</v>
-      </c>
-      <c r="D53" s="6">
-        <v>12</v>
-      </c>
-      <c r="E53" s="6">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F53" s="6">
-        <v>-0.89</v>
-      </c>
-      <c r="G53" s="6">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="H53" s="6">
-        <v>5.01</v>
-      </c>
-      <c r="I53" s="6">
-        <v>1.77</v>
-      </c>
-      <c r="J53" s="6">
-        <v>-0.11</v>
-      </c>
-      <c r="K53" s="6">
-        <v>4.47</v>
-      </c>
-      <c r="L53" s="6">
-        <v>-5.0199999999999996</v>
-      </c>
-      <c r="M53" s="6">
-        <v>2.46</v>
-      </c>
-      <c r="N53" s="6">
-        <v>-0.17</v>
-      </c>
-      <c r="O53" s="6">
-        <v>1.05</v>
-      </c>
-      <c r="P53" s="7">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C54" s="11">
-        <v>201801</v>
-      </c>
-      <c r="D54" s="6">
-        <v>13</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="F54" s="6">
-        <v>2.61</v>
-      </c>
-      <c r="G54" s="6">
-        <v>6.16</v>
-      </c>
-      <c r="H54" s="6">
-        <v>2.86</v>
-      </c>
-      <c r="I54" s="6">
-        <v>-0.53</v>
-      </c>
-      <c r="J54" s="6">
-        <v>7.83</v>
-      </c>
-      <c r="K54" s="6">
-        <v>3.13</v>
-      </c>
-      <c r="L54" s="6">
-        <v>-2.83</v>
-      </c>
-      <c r="M54" s="6">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="N54" s="6">
-        <v>6.37</v>
-      </c>
-      <c r="O54" s="6">
-        <v>6.16</v>
-      </c>
-      <c r="P54" s="7">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C55" s="11">
-        <v>201802</v>
-      </c>
-      <c r="D55" s="6">
-        <v>14</v>
-      </c>
-      <c r="E55" s="6">
-        <v>-6.22</v>
-      </c>
-      <c r="F55" s="6">
-        <v>-6.04</v>
-      </c>
-      <c r="G55" s="6">
-        <v>-3.26</v>
-      </c>
-      <c r="H55" s="6">
-        <v>-10.74</v>
-      </c>
-      <c r="I55" s="6">
-        <v>-5.76</v>
-      </c>
-      <c r="J55" s="6">
-        <v>-0.03</v>
-      </c>
-      <c r="K55" s="6">
-        <v>-7.13</v>
-      </c>
-      <c r="L55" s="6">
-        <v>-4.5199999999999996</v>
-      </c>
-      <c r="M55" s="6">
-        <v>-4.7</v>
-      </c>
-      <c r="N55" s="6">
-        <v>-3.53</v>
-      </c>
-      <c r="O55" s="6">
-        <v>-2.56</v>
-      </c>
-      <c r="P55" s="7">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C56" s="11">
-        <v>201803</v>
-      </c>
-      <c r="D56" s="6">
-        <v>15</v>
-      </c>
-      <c r="E56" s="6">
-        <v>-1.05</v>
-      </c>
-      <c r="F56" s="6">
-        <v>-5.61</v>
-      </c>
-      <c r="G56" s="6">
-        <v>-3.22</v>
-      </c>
-      <c r="H56" s="6">
-        <v>2.97</v>
-      </c>
-      <c r="I56" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="J56" s="6">
-        <v>-3.3</v>
-      </c>
-      <c r="K56" s="6">
-        <v>-2.6</v>
-      </c>
-      <c r="L56" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="M56" s="6">
-        <v>-2.52</v>
-      </c>
-      <c r="N56" s="6">
-        <v>-2.42</v>
-      </c>
-      <c r="O56" s="6">
-        <v>-3.44</v>
-      </c>
-      <c r="P56" s="7">
-        <v>-1.47</v>
-      </c>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C57" s="11">
-        <v>201804</v>
-      </c>
-      <c r="D57" s="6">
-        <v>16</v>
-      </c>
-      <c r="E57" s="6">
-        <v>-3.96</v>
-      </c>
-      <c r="F57" s="6">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="G57" s="6">
-        <v>-3.56</v>
-      </c>
-      <c r="H57" s="6">
-        <v>10.01</v>
-      </c>
-      <c r="I57" s="6">
-        <v>-2.78</v>
-      </c>
-      <c r="J57" s="6">
-        <v>-0.06</v>
-      </c>
-      <c r="K57" s="6">
-        <v>-2.38</v>
-      </c>
-      <c r="L57" s="6">
-        <v>2.77</v>
-      </c>
-      <c r="M57" s="6">
-        <v>3.91</v>
-      </c>
-      <c r="N57" s="6">
-        <v>-0.04</v>
-      </c>
-      <c r="O57" s="6">
-        <v>1.21</v>
-      </c>
-      <c r="P57" s="7">
-        <v>-0.67</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C58" s="11">
-        <v>201805</v>
-      </c>
-      <c r="D58" s="6">
-        <v>17</v>
-      </c>
-      <c r="E58" s="6">
-        <v>-0.51</v>
-      </c>
-      <c r="F58" s="6">
-        <v>2.97</v>
-      </c>
-      <c r="G58" s="6">
-        <v>3.26</v>
-      </c>
-      <c r="H58" s="6">
-        <v>3.43</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="J58" s="6">
-        <v>6.82</v>
-      </c>
-      <c r="K58" s="6">
-        <v>-0.84</v>
-      </c>
-      <c r="L58" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="M58" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="N58" s="6">
-        <v>2.29</v>
-      </c>
-      <c r="O58" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="P58" s="7">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C59" s="11">
-        <v>201806</v>
-      </c>
-      <c r="D59" s="6">
-        <v>18</v>
-      </c>
-      <c r="E59" s="6">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="F59" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="G59" s="6">
-        <v>-2.15</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I59" s="6">
-        <v>2.19</v>
-      </c>
-      <c r="J59" s="6">
-        <v>-0.32</v>
-      </c>
-      <c r="K59" s="6">
-        <v>6.43</v>
-      </c>
-      <c r="L59" s="6">
-        <v>2.61</v>
-      </c>
-      <c r="M59" s="6">
-        <v>3.06</v>
-      </c>
-      <c r="N59" s="6">
-        <v>1.49</v>
-      </c>
-      <c r="O59" s="6">
-        <v>-0.98</v>
-      </c>
-      <c r="P59" s="7">
-        <v>-1.08</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C60" s="11">
-        <v>201807</v>
-      </c>
-      <c r="D60" s="6">
-        <v>19</v>
-      </c>
-      <c r="E60" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="F60" s="6">
-        <v>-1.56</v>
-      </c>
-      <c r="G60" s="6">
-        <v>5.78</v>
-      </c>
-      <c r="H60" s="6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I60" s="6">
-        <v>3.73</v>
-      </c>
-      <c r="J60" s="6">
-        <v>2.19</v>
-      </c>
-      <c r="K60" s="6">
-        <v>2.69</v>
-      </c>
-      <c r="L60" s="6">
-        <v>1.73</v>
-      </c>
-      <c r="M60" s="6">
-        <v>3.21</v>
-      </c>
-      <c r="N60" s="6">
-        <v>5.99</v>
-      </c>
-      <c r="O60" s="6">
-        <v>4.25</v>
-      </c>
-      <c r="P60" s="7">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C61" s="11">
-        <v>201808</v>
-      </c>
-      <c r="D61" s="6">
-        <v>20</v>
-      </c>
-      <c r="E61" s="6">
-        <v>-1.07</v>
-      </c>
-      <c r="F61" s="6">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="G61" s="6">
-        <v>-0.98</v>
-      </c>
-      <c r="H61" s="6">
-        <v>-2.84</v>
-      </c>
-      <c r="I61" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="J61" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="K61" s="6">
-        <v>3.08</v>
-      </c>
-      <c r="L61" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="M61" s="6">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="N61" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O61" s="6">
-        <v>2.48</v>
-      </c>
-      <c r="P61" s="7">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C62" s="11">
-        <v>201809</v>
-      </c>
-      <c r="D62" s="6">
-        <v>21</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="F62" s="6">
-        <v>-3.79</v>
-      </c>
-      <c r="G62" s="6">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="H62" s="6">
-        <v>3.35</v>
-      </c>
-      <c r="I62" s="6">
-        <v>-0.91</v>
-      </c>
-      <c r="J62" s="6">
-        <v>-0.22</v>
-      </c>
-      <c r="K62" s="6">
-        <v>1.64</v>
-      </c>
-      <c r="L62" s="6">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="M62" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="N62" s="6">
-        <v>2.14</v>
-      </c>
-      <c r="O62" s="6">
-        <v>-2</v>
-      </c>
-      <c r="P62" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C63" s="11">
-        <v>201810</v>
-      </c>
-      <c r="D63" s="6">
-        <v>22</v>
-      </c>
-      <c r="E63" s="6">
-        <v>-0.24</v>
-      </c>
-      <c r="F63" s="6">
-        <v>-3.18</v>
-      </c>
-      <c r="G63" s="6">
-        <v>-11.6</v>
-      </c>
-      <c r="H63" s="6">
-        <v>-11.87</v>
-      </c>
-      <c r="I63" s="6">
-        <v>-6.23</v>
-      </c>
-      <c r="J63" s="6">
-        <v>-8.7899999999999991</v>
-      </c>
-      <c r="K63" s="6">
-        <v>-0.34</v>
-      </c>
-      <c r="L63" s="6">
-        <v>-0.06</v>
-      </c>
-      <c r="M63" s="6">
-        <v>-8.75</v>
-      </c>
-      <c r="N63" s="6">
-        <v>-8.6999999999999993</v>
-      </c>
-      <c r="O63" s="6">
-        <v>-5.54</v>
-      </c>
-      <c r="P63" s="7">
-        <v>-8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C64" s="11">
-        <v>201811</v>
-      </c>
-      <c r="D64" s="6">
-        <v>23</v>
-      </c>
-      <c r="E64" s="6">
-        <v>0.46</v>
-      </c>
-      <c r="F64" s="6">
-        <v>5.17</v>
-      </c>
-      <c r="G64" s="6">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="H64" s="6">
-        <v>-2.17</v>
-      </c>
-      <c r="I64" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="J64" s="6">
-        <v>-1.62</v>
-      </c>
-      <c r="K64" s="6">
-        <v>2.62</v>
-      </c>
-      <c r="L64" s="6">
-        <v>3.27</v>
-      </c>
-      <c r="M64" s="6">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="N64" s="6">
-        <v>6.46</v>
-      </c>
-      <c r="O64" s="6">
-        <v>2.82</v>
-      </c>
-      <c r="P64" s="7">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C65" s="11">
-        <v>201812</v>
-      </c>
-      <c r="D65" s="6">
-        <v>24</v>
-      </c>
-      <c r="E65" s="6">
-        <v>-11.23</v>
-      </c>
-      <c r="F65" s="6">
-        <v>-11.43</v>
-      </c>
-      <c r="G65" s="6">
-        <v>-9.8699999999999992</v>
-      </c>
-      <c r="H65" s="6">
-        <v>-13.02</v>
-      </c>
-      <c r="I65" s="6">
-        <v>-6.3</v>
-      </c>
-      <c r="J65" s="6">
-        <v>-8.0399999999999991</v>
-      </c>
-      <c r="K65" s="6">
-        <v>-8.77</v>
-      </c>
-      <c r="L65" s="6">
-        <v>-4.75</v>
-      </c>
-      <c r="M65" s="6">
-        <v>-9.06</v>
-      </c>
-      <c r="N65" s="6">
-        <v>-8.18</v>
-      </c>
-      <c r="O65" s="6">
-        <v>-11.48</v>
-      </c>
-      <c r="P65" s="7">
-        <v>-9.35</v>
-      </c>
-    </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C66" s="11">
-        <v>201901</v>
-      </c>
-      <c r="D66" s="6">
-        <v>25</v>
-      </c>
-      <c r="E66" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="F66" s="6">
-        <v>10.73</v>
-      </c>
-      <c r="G66" s="6">
-        <v>11.85</v>
-      </c>
-      <c r="H66" s="6">
-        <v>10.32</v>
-      </c>
-      <c r="I66" s="6">
-        <v>5.66</v>
-      </c>
-      <c r="J66" s="6">
-        <v>9.49</v>
-      </c>
-      <c r="K66" s="6">
-        <v>5.56</v>
-      </c>
-      <c r="L66" s="6">
-        <v>5.41</v>
-      </c>
-      <c r="M66" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N66" s="6">
-        <v>5.25</v>
-      </c>
-      <c r="O66" s="6">
-        <v>9.77</v>
-      </c>
-      <c r="P66" s="7">
-        <v>8.4600000000000009</v>
-      </c>
-    </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C67" s="11">
-        <v>201902</v>
-      </c>
-      <c r="D67" s="6">
-        <v>26</v>
-      </c>
-      <c r="E67" s="6">
-        <v>1.42</v>
-      </c>
-      <c r="F67" s="6">
-        <v>3.97</v>
-      </c>
-      <c r="G67" s="6">
-        <v>5.67</v>
-      </c>
-      <c r="H67" s="6">
-        <v>2.46</v>
-      </c>
-      <c r="I67" s="6">
-        <v>4.45</v>
-      </c>
-      <c r="J67" s="6">
-        <v>5.67</v>
-      </c>
-      <c r="K67" s="6">
-        <v>3.26</v>
-      </c>
-      <c r="L67" s="6">
-        <v>3.62</v>
-      </c>
-      <c r="M67" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="N67" s="6">
-        <v>3.23</v>
-      </c>
-      <c r="O67" s="6">
-        <v>2.87</v>
-      </c>
-      <c r="P67" s="7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C68" s="11">
-        <v>201903</v>
-      </c>
-      <c r="D68" s="6">
-        <v>27</v>
-      </c>
-      <c r="E68" s="6">
-        <v>3.68</v>
-      </c>
-      <c r="F68" s="6">
-        <v>-5.29</v>
-      </c>
-      <c r="G68" s="6">
-        <v>-2.14</v>
-      </c>
-      <c r="H68" s="6">
-        <v>1.99</v>
-      </c>
-      <c r="I68" s="6">
-        <v>1.91</v>
-      </c>
-      <c r="J68" s="6">
-        <v>3.75</v>
-      </c>
-      <c r="K68" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="L68" s="6">
-        <v>3.32</v>
-      </c>
-      <c r="M68" s="6">
-        <v>3.37</v>
-      </c>
-      <c r="N68" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="O68" s="6">
-        <v>-2.35</v>
-      </c>
-      <c r="P68" s="7">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C69" s="11">
-        <v>201904</v>
-      </c>
-      <c r="D69" s="6">
-        <v>28</v>
-      </c>
-      <c r="E69" s="6">
-        <v>3.19</v>
-      </c>
-      <c r="F69" s="6">
-        <v>3.35</v>
-      </c>
-      <c r="G69" s="6">
-        <v>3.84</v>
-      </c>
-      <c r="H69" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="I69" s="6">
-        <v>4.46</v>
-      </c>
-      <c r="J69" s="6">
-        <v>6.02</v>
-      </c>
-      <c r="K69" s="6">
-        <v>6.32</v>
-      </c>
-      <c r="L69" s="6">
-        <v>1.02</v>
-      </c>
-      <c r="M69" s="6">
-        <v>4.59</v>
-      </c>
-      <c r="N69" s="6">
-        <v>-3.13</v>
-      </c>
-      <c r="O69" s="6">
-        <v>7.11</v>
-      </c>
-      <c r="P69" s="7">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C70" s="11">
-        <v>201905</v>
-      </c>
-      <c r="D70" s="6">
-        <v>29</v>
-      </c>
-      <c r="E70" s="6">
-        <v>-5.54</v>
-      </c>
-      <c r="F70" s="6">
-        <v>-12.09</v>
-      </c>
-      <c r="G70" s="6">
-        <v>-9.89</v>
-      </c>
-      <c r="H70" s="6">
-        <v>-11.81</v>
-      </c>
-      <c r="I70" s="6">
-        <v>-7.75</v>
-      </c>
-      <c r="J70" s="6">
-        <v>-8.48</v>
-      </c>
-      <c r="K70" s="6">
-        <v>-2.97</v>
-      </c>
-      <c r="L70" s="6">
-        <v>-1.54</v>
-      </c>
-      <c r="M70" s="6">
-        <v>-6.04</v>
-      </c>
-      <c r="N70" s="6">
-        <v>-3.37</v>
-      </c>
-      <c r="O70" s="6">
-        <v>-5.52</v>
-      </c>
-      <c r="P70" s="7">
-        <v>-7.42</v>
-      </c>
-    </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C71" s="11">
-        <v>201906</v>
-      </c>
-      <c r="D71" s="6">
-        <v>30</v>
-      </c>
-      <c r="E71" s="6">
-        <v>4.93</v>
-      </c>
-      <c r="F71" s="6">
-        <v>13.01</v>
-      </c>
-      <c r="G71" s="6">
-        <v>9.66</v>
-      </c>
-      <c r="H71" s="6">
-        <v>8.86</v>
-      </c>
-      <c r="I71" s="6">
-        <v>5.23</v>
-      </c>
-      <c r="J71" s="6">
-        <v>7.83</v>
-      </c>
-      <c r="K71" s="6">
-        <v>4.96</v>
-      </c>
-      <c r="L71" s="6">
-        <v>3.64</v>
-      </c>
-      <c r="M71" s="6">
-        <v>7.14</v>
-      </c>
-      <c r="N71" s="6">
-        <v>6.84</v>
-      </c>
-      <c r="O71" s="6">
-        <v>6.24</v>
-      </c>
-      <c r="P71" s="7">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C72" s="11">
-        <v>201907</v>
-      </c>
-      <c r="D72" s="6">
-        <v>31</v>
-      </c>
-      <c r="E72" s="6">
-        <v>1.73</v>
-      </c>
-      <c r="F72" s="6">
-        <v>1.02</v>
-      </c>
-      <c r="G72" s="6">
-        <v>-0.32</v>
-      </c>
-      <c r="H72" s="6">
-        <v>-2.67</v>
-      </c>
-      <c r="I72" s="6">
-        <v>3.23</v>
-      </c>
-      <c r="J72" s="6">
-        <v>3.64</v>
-      </c>
-      <c r="K72" s="6">
-        <v>1.91</v>
-      </c>
-      <c r="L72" s="6">
-        <v>-0.99</v>
-      </c>
-      <c r="M72" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="N72" s="6">
-        <v>-2.19</v>
-      </c>
-      <c r="O72" s="6">
-        <v>3.12</v>
-      </c>
-      <c r="P72" s="7">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C73" s="11">
-        <v>201908</v>
-      </c>
-      <c r="D73" s="6">
-        <v>32</v>
-      </c>
-      <c r="E73" s="6">
-        <v>-1.33</v>
-      </c>
-      <c r="F73" s="6">
-        <v>-4.33</v>
-      </c>
-      <c r="G73" s="6">
-        <v>-2.06</v>
-      </c>
-      <c r="H73" s="6">
-        <v>-8.74</v>
-      </c>
-      <c r="I73" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="J73" s="6">
-        <v>-2.77</v>
-      </c>
-      <c r="K73" s="6">
-        <v>0.43</v>
-      </c>
-      <c r="L73" s="6">
-        <v>3.44</v>
-      </c>
-      <c r="M73" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N73" s="6">
-        <v>-0.61</v>
-      </c>
-      <c r="O73" s="6">
-        <v>-4.7300000000000004</v>
-      </c>
-      <c r="P73" s="7">
-        <v>-3.98</v>
-      </c>
-    </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C74" s="11">
-        <v>201909</v>
-      </c>
-      <c r="D74" s="6">
-        <v>33</v>
-      </c>
-      <c r="E74" s="6">
-        <v>1.85</v>
-      </c>
-      <c r="F74" s="6">
-        <v>3.28</v>
-      </c>
-      <c r="G74" s="6">
-        <v>4.45</v>
-      </c>
-      <c r="H74" s="6">
-        <v>3.71</v>
-      </c>
-      <c r="I74" s="6">
-        <v>2.88</v>
-      </c>
-      <c r="J74" s="6">
-        <v>1.01</v>
-      </c>
-      <c r="K74" s="6">
-        <v>1.44</v>
-      </c>
-      <c r="L74" s="6">
-        <v>3.92</v>
-      </c>
-      <c r="M74" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="N74" s="6">
-        <v>-0.94</v>
-      </c>
-      <c r="O74" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="P74" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C75" s="11">
-        <v>201910</v>
-      </c>
-      <c r="D75" s="6">
-        <v>34</v>
-      </c>
-      <c r="E75" s="6">
-        <v>-0.02</v>
-      </c>
-      <c r="F75" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="G75" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="H75" s="6">
-        <v>-2.0699999999999998</v>
-      </c>
-      <c r="I75" s="6">
-        <v>-1.56</v>
-      </c>
-      <c r="J75" s="6">
-        <v>3.24</v>
-      </c>
-      <c r="K75" s="6">
-        <v>2.25</v>
-      </c>
-      <c r="L75" s="6">
-        <v>-1.42</v>
-      </c>
-      <c r="M75" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="N75" s="6">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="O75" s="6">
-        <v>3.37</v>
-      </c>
-      <c r="P75" s="7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C76" s="11">
-        <v>201911</v>
-      </c>
-      <c r="D76" s="6">
-        <v>35</v>
-      </c>
-      <c r="E76" s="6">
-        <v>2.19</v>
-      </c>
-      <c r="F76" s="6">
-        <v>2.74</v>
-      </c>
-      <c r="G76" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="H76" s="6">
-        <v>1.21</v>
-      </c>
-      <c r="I76" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="J76" s="6">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="K76" s="6">
-        <v>1.91</v>
-      </c>
-      <c r="L76" s="6">
-        <v>-2.15</v>
-      </c>
-      <c r="M76" s="6">
-        <v>2.16</v>
-      </c>
-      <c r="N76" s="6">
-        <v>5.53</v>
-      </c>
-      <c r="O76" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="P76" s="7">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C77" s="11">
-        <v>201912</v>
-      </c>
-      <c r="D77" s="6">
-        <v>36</v>
-      </c>
-      <c r="E77" s="6">
-        <v>3.53</v>
-      </c>
-      <c r="F77" s="6">
-        <v>5.07</v>
-      </c>
-      <c r="G77" s="6">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H77" s="6">
-        <v>6.18</v>
-      </c>
-      <c r="I77" s="6">
-        <v>2.11</v>
-      </c>
-      <c r="J77" s="6">
-        <v>3.68</v>
-      </c>
-      <c r="K77" s="6">
-        <v>1.24</v>
-      </c>
-      <c r="L77" s="6">
-        <v>4.13</v>
-      </c>
-      <c r="M77" s="6">
-        <v>1.37</v>
-      </c>
-      <c r="N77" s="6">
-        <v>3.45</v>
-      </c>
-      <c r="O77" s="6">
-        <v>2.62</v>
-      </c>
-      <c r="P77" s="7">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C78" s="11">
-        <v>202001</v>
-      </c>
-      <c r="D78" s="6">
-        <v>37</v>
-      </c>
-      <c r="E78" s="6">
-        <v>-0.38</v>
-      </c>
-      <c r="F78" s="6">
-        <v>5.89</v>
-      </c>
-      <c r="G78" s="6">
-        <v>-2.85</v>
-      </c>
-      <c r="H78" s="6">
-        <v>-11.87</v>
-      </c>
-      <c r="I78" s="6">
-        <v>-3.15</v>
-      </c>
-      <c r="J78" s="6">
-        <v>3.33</v>
-      </c>
-      <c r="K78" s="6">
-        <v>-1.99</v>
-      </c>
-      <c r="L78" s="6">
-        <v>4.83</v>
-      </c>
-      <c r="M78" s="6">
-        <v>0.93</v>
-      </c>
-      <c r="N78" s="6">
-        <v>-2.0099999999999998</v>
-      </c>
-      <c r="O78" s="6">
-        <v>-2.31</v>
-      </c>
-      <c r="P78" s="7">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C79" s="11">
-        <v>202002</v>
-      </c>
-      <c r="D79" s="6">
-        <v>38</v>
-      </c>
-      <c r="E79" s="6">
-        <v>-8.73</v>
-      </c>
-      <c r="F79" s="6">
-        <v>-7.29</v>
-      </c>
-      <c r="G79" s="6">
-        <v>-8.4700000000000006</v>
-      </c>
-      <c r="H79" s="6">
-        <v>-15.3</v>
-      </c>
-      <c r="I79" s="6">
-        <v>-8.83</v>
-      </c>
-      <c r="J79" s="6">
-        <v>-6.91</v>
-      </c>
-      <c r="K79" s="6">
-        <v>-5.95</v>
-      </c>
-      <c r="L79" s="6">
-        <v>-9.85</v>
-      </c>
-      <c r="M79" s="6">
-        <v>-6.8</v>
-      </c>
-      <c r="N79" s="6">
-        <v>-5.39</v>
-      </c>
-      <c r="O79" s="6">
-        <v>-10.65</v>
-      </c>
-      <c r="P79" s="7">
-        <v>-8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C80" s="11">
-        <v>202003</v>
-      </c>
-      <c r="D80" s="6">
-        <v>39</v>
-      </c>
-      <c r="E80" s="6">
-        <v>-11.49</v>
-      </c>
-      <c r="F80" s="6">
-        <v>-22.76</v>
-      </c>
-      <c r="G80" s="6">
-        <v>-20.059999999999999</v>
-      </c>
-      <c r="H80" s="6">
-        <v>-34.49</v>
-      </c>
-      <c r="I80" s="6">
-        <v>-10.25</v>
-      </c>
-      <c r="J80" s="6">
-        <v>-9.6300000000000008</v>
-      </c>
-      <c r="K80" s="6">
-        <v>-13.37</v>
-      </c>
-      <c r="L80" s="6">
-        <v>-13.01</v>
-      </c>
-      <c r="M80" s="6">
-        <v>-7.6</v>
-      </c>
-      <c r="N80" s="6">
-        <v>-5</v>
-      </c>
-      <c r="O80" s="6">
-        <v>-20.02</v>
-      </c>
-      <c r="P80" s="7">
-        <v>-17.25</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C81" s="11">
-        <v>202004</v>
-      </c>
-      <c r="D81" s="6">
-        <v>40</v>
-      </c>
-      <c r="E81" s="6">
-        <v>8.01</v>
-      </c>
-      <c r="F81" s="6">
-        <v>25.86</v>
-      </c>
-      <c r="G81" s="6">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="H81" s="6">
-        <v>32.380000000000003</v>
-      </c>
-      <c r="I81" s="6">
-        <v>12.56</v>
-      </c>
-      <c r="J81" s="6">
-        <v>15.17</v>
-      </c>
-      <c r="K81" s="6">
-        <v>9.56</v>
-      </c>
-      <c r="L81" s="6">
-        <v>5.07</v>
-      </c>
-      <c r="M81" s="6">
-        <v>18.04</v>
-      </c>
-      <c r="N81" s="6">
-        <v>13.41</v>
-      </c>
-      <c r="O81" s="6">
-        <v>11.91</v>
-      </c>
-      <c r="P81" s="7">
-        <v>8.8699999999999992</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C82" s="11">
-        <v>202005</v>
-      </c>
-      <c r="D82" s="6">
-        <v>41</v>
-      </c>
-      <c r="E82" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="F82" s="6">
-        <v>7.22</v>
-      </c>
-      <c r="G82" s="6">
-        <v>6.58</v>
-      </c>
-      <c r="H82" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="I82" s="6">
-        <v>4.93</v>
-      </c>
-      <c r="J82" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="K82" s="6">
-        <v>4.78</v>
-      </c>
-      <c r="L82" s="6">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="M82" s="6">
-        <v>4.42</v>
-      </c>
-      <c r="N82" s="6">
-        <v>4.05</v>
-      </c>
-      <c r="O82" s="6">
-        <v>3.76</v>
-      </c>
-      <c r="P82" s="7">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C83" s="11">
-        <v>202006</v>
-      </c>
-      <c r="D83" s="6">
-        <v>42</v>
-      </c>
-      <c r="E83" s="6">
-        <v>-0.03</v>
-      </c>
-      <c r="F83" s="6">
-        <v>14.31</v>
-      </c>
-      <c r="G83" s="6">
-        <v>3.32</v>
-      </c>
-      <c r="H83" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="I83" s="6">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J83" s="6">
-        <v>6.09</v>
-      </c>
-      <c r="K83" s="6">
-        <v>-2.52</v>
-      </c>
-      <c r="L83" s="6">
-        <v>-5.0199999999999996</v>
-      </c>
-      <c r="M83" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="N83" s="6">
-        <v>-1.52</v>
-      </c>
-      <c r="O83" s="6">
-        <v>-0.35</v>
-      </c>
-      <c r="P83" s="7">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C84" s="11">
-        <v>202007</v>
-      </c>
-      <c r="D84" s="6">
-        <v>43</v>
-      </c>
-      <c r="E84" s="6">
-        <v>5.87</v>
-      </c>
-      <c r="F84" s="6">
-        <v>18.43</v>
-      </c>
-      <c r="G84" s="6">
-        <v>2.92</v>
-      </c>
-      <c r="H84" s="6">
-        <v>-4.8</v>
-      </c>
-      <c r="I84" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="J84" s="6">
-        <v>6.91</v>
-      </c>
-      <c r="K84" s="6">
-        <v>5.07</v>
-      </c>
-      <c r="L84" s="6">
-        <v>6.37</v>
-      </c>
-      <c r="M84" s="6">
-        <v>9.51</v>
-      </c>
-      <c r="N84" s="6">
-        <v>4.43</v>
-      </c>
-      <c r="O84" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="P84" s="7">
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C85" s="11">
-        <v>202008</v>
-      </c>
-      <c r="D85" s="6">
-        <v>44</v>
-      </c>
-      <c r="E85" s="6">
-        <v>4.45</v>
-      </c>
-      <c r="F85" s="6">
-        <v>40.19</v>
-      </c>
-      <c r="G85" s="6">
-        <v>6.99</v>
-      </c>
-      <c r="H85" s="6">
-        <v>-1.07</v>
-      </c>
-      <c r="I85" s="6">
-        <v>5.17</v>
-      </c>
-      <c r="J85" s="6">
-        <v>10.56</v>
-      </c>
-      <c r="K85" s="6">
-        <v>5.51</v>
-      </c>
-      <c r="L85" s="6">
-        <v>-2.25</v>
-      </c>
-      <c r="M85" s="6">
-        <v>8.16</v>
-      </c>
-      <c r="N85" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="O85" s="6">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="P85" s="7">
-        <v>10.039999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C86" s="11">
-        <v>202009</v>
-      </c>
-      <c r="D86" s="6">
-        <v>45</v>
-      </c>
-      <c r="E86" s="6">
-        <v>-1.98</v>
-      </c>
-      <c r="F86" s="6">
-        <v>-8.9700000000000006</v>
-      </c>
-      <c r="G86" s="6">
-        <v>-0.05</v>
-      </c>
-      <c r="H86" s="6">
-        <v>-14.9</v>
-      </c>
-      <c r="I86" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J86" s="6">
-        <v>-5.16</v>
-      </c>
-      <c r="K86" s="6">
-        <v>-2.12</v>
-      </c>
-      <c r="L86" s="6">
-        <v>-0.27</v>
-      </c>
-      <c r="M86" s="6">
-        <v>-3.87</v>
-      </c>
-      <c r="N86" s="6">
-        <v>-1.48</v>
-      </c>
-      <c r="O86" s="6">
-        <v>-4.12</v>
-      </c>
-      <c r="P86" s="7">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C87" s="11">
-        <v>202010</v>
-      </c>
-      <c r="D87" s="6">
-        <v>46</v>
-      </c>
-      <c r="E87" s="6">
-        <v>-2.56</v>
-      </c>
-      <c r="F87" s="6">
-        <v>-3.29</v>
-      </c>
-      <c r="G87" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="H87" s="6">
-        <v>-4.53</v>
-      </c>
-      <c r="I87" s="6">
-        <v>-0.68</v>
-      </c>
-      <c r="J87" s="6">
-        <v>-1.84</v>
-      </c>
-      <c r="K87" s="6">
-        <v>-3.85</v>
-      </c>
-      <c r="L87" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="M87" s="6">
-        <v>-2.57</v>
-      </c>
-      <c r="N87" s="6">
-        <v>-4.42</v>
-      </c>
-      <c r="O87" s="6">
-        <v>-1.01</v>
-      </c>
-      <c r="P87" s="7">
-        <v>-2.95</v>
-      </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C88" s="11">
-        <v>202011</v>
-      </c>
-      <c r="D88" s="6">
-        <v>47</v>
-      </c>
-      <c r="E88" s="6">
-        <v>10.02</v>
-      </c>
-      <c r="F88" s="6">
-        <v>33.85</v>
-      </c>
-      <c r="G88" s="6">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="H88" s="6">
-        <v>28.46</v>
-      </c>
-      <c r="I88" s="6">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="J88" s="6">
-        <v>10.85</v>
-      </c>
-      <c r="K88" s="6">
-        <v>14.43</v>
-      </c>
-      <c r="L88" s="6">
-        <v>2.63</v>
-      </c>
-      <c r="M88" s="6">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="N88" s="6">
-        <v>9.52</v>
-      </c>
-      <c r="O88" s="6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="P88" s="7">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C89" s="11">
-        <v>202012</v>
-      </c>
-      <c r="D89" s="6">
-        <v>48</v>
-      </c>
-      <c r="E89" s="6">
-        <v>5</v>
-      </c>
-      <c r="F89" s="6">
-        <v>15.65</v>
-      </c>
-      <c r="G89" s="6">
-        <v>2.93</v>
-      </c>
-      <c r="H89" s="6">
-        <v>6.16</v>
-      </c>
-      <c r="I89" s="6">
-        <v>1.96</v>
-      </c>
-      <c r="J89" s="6">
-        <v>4.95</v>
-      </c>
-      <c r="K89" s="6">
-        <v>5.29</v>
-      </c>
-      <c r="L89" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="M89" s="6">
-        <v>1.49</v>
-      </c>
-      <c r="N89" s="6">
-        <v>4.76</v>
-      </c>
-      <c r="O89" s="6">
-        <v>6.92</v>
-      </c>
-      <c r="P89" s="7">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C90" s="11">
-        <v>202101</v>
-      </c>
-      <c r="D90" s="6">
-        <v>49</v>
-      </c>
-      <c r="E90" s="6">
-        <v>-4.1100000000000003</v>
-      </c>
-      <c r="F90" s="6">
-        <v>11.45</v>
-      </c>
-      <c r="G90" s="6">
-        <v>-1.53</v>
-      </c>
-      <c r="H90" s="6">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="I90" s="6">
-        <v>-4.37</v>
-      </c>
-      <c r="J90" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K90" s="6">
-        <v>-3.42</v>
-      </c>
-      <c r="L90" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="M90" s="6">
-        <v>0</v>
-      </c>
-      <c r="N90" s="6">
-        <v>3.22</v>
-      </c>
-      <c r="O90" s="6">
-        <v>-3.01</v>
-      </c>
-      <c r="P90" s="7">
-        <v>-2.54</v>
-      </c>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C91" s="11">
-        <v>202102</v>
-      </c>
-      <c r="D91" s="6">
-        <v>50</v>
-      </c>
-      <c r="E91" s="6">
-        <v>1.35</v>
-      </c>
-      <c r="F91" s="6">
-        <v>-7.93</v>
-      </c>
-      <c r="G91" s="6">
-        <v>7.75</v>
-      </c>
-      <c r="H91" s="6">
-        <v>23.31</v>
-      </c>
-      <c r="I91" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="J91" s="6">
-        <v>1.59</v>
-      </c>
-      <c r="K91" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="L91" s="6">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="M91" s="6">
-        <v>-1.64</v>
-      </c>
-      <c r="N91" s="6">
-        <v>-1.35</v>
-      </c>
-      <c r="O91" s="6">
-        <v>10.82</v>
-      </c>
-      <c r="P91" s="7">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C92" s="11">
-        <v>202103</v>
-      </c>
-      <c r="D92" s="6">
-        <v>51</v>
-      </c>
-      <c r="E92" s="6">
-        <v>7.21</v>
-      </c>
-      <c r="F92" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="G92" s="6">
-        <v>7.67</v>
-      </c>
-      <c r="H92" s="6">
-        <v>2.27</v>
-      </c>
-      <c r="I92" s="6">
-        <v>7.25</v>
-      </c>
-      <c r="J92" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="K92" s="6">
-        <v>1.59</v>
-      </c>
-      <c r="L92" s="6">
-        <v>10.35</v>
-      </c>
-      <c r="M92" s="6">
-        <v>5.54</v>
-      </c>
-      <c r="N92" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="O92" s="6">
-        <v>5.73</v>
-      </c>
-      <c r="P92" s="7">
-        <v>5.34</v>
-      </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C93" s="11">
-        <v>202104</v>
-      </c>
-      <c r="D93" s="6">
-        <v>52</v>
-      </c>
-      <c r="E93" s="6">
-        <v>3.36</v>
-      </c>
-      <c r="F93" s="6">
-        <v>4.37</v>
-      </c>
-      <c r="G93" s="6">
-        <v>2.39</v>
-      </c>
-      <c r="H93" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="I93" s="6">
-        <v>2.86</v>
-      </c>
-      <c r="J93" s="6">
-        <v>6.49</v>
-      </c>
-      <c r="K93" s="6">
-        <v>3.15</v>
-      </c>
-      <c r="L93" s="6">
-        <v>3.98</v>
-      </c>
-      <c r="M93" s="6">
-        <v>7.06</v>
-      </c>
-      <c r="N93" s="6">
-        <v>2.87</v>
-      </c>
-      <c r="O93" s="6">
-        <v>6.27</v>
-      </c>
-      <c r="P93" s="7">
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C94" s="11">
-        <v>202105</v>
-      </c>
-      <c r="D94" s="6">
-        <v>53</v>
-      </c>
-      <c r="E94" s="6">
-        <v>1.93</v>
-      </c>
-      <c r="F94" s="6">
-        <v>-5.26</v>
-      </c>
-      <c r="G94" s="6">
-        <v>2.94</v>
-      </c>
-      <c r="H94" s="6">
-        <v>6.13</v>
-      </c>
-      <c r="I94" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J94" s="6">
-        <v>-0.87</v>
-      </c>
-      <c r="K94" s="6">
-        <v>-0.83</v>
-      </c>
-      <c r="L94" s="6">
-        <v>-1.17</v>
-      </c>
-      <c r="M94" s="6">
-        <v>-2.21</v>
-      </c>
-      <c r="N94" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="O94" s="6">
-        <v>3.07</v>
-      </c>
-      <c r="P94" s="7">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C95" s="11">
-        <v>202106</v>
-      </c>
-      <c r="D95" s="6">
-        <v>54</v>
-      </c>
-      <c r="E95" s="6">
-        <v>-0.74</v>
-      </c>
-      <c r="F95" s="6">
-        <v>5.66</v>
-      </c>
-      <c r="G95" s="6">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H95" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="I95" s="6">
-        <v>-2.37</v>
-      </c>
-      <c r="J95" s="6">
-        <v>6.97</v>
-      </c>
-      <c r="K95" s="6">
-        <v>-0.12</v>
-      </c>
-      <c r="L95" s="6">
-        <v>-1.42</v>
-      </c>
-      <c r="M95" s="6">
-        <v>2.84</v>
-      </c>
-      <c r="N95" s="6">
-        <v>4.28</v>
-      </c>
-      <c r="O95" s="6">
-        <v>-2.15</v>
-      </c>
-      <c r="P95" s="7">
-        <v>-2.73</v>
-      </c>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C96" s="11">
-        <v>202107</v>
-      </c>
-      <c r="D96" s="6">
-        <v>55</v>
-      </c>
-      <c r="E96" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="F96" s="6">
-        <v>-0.98</v>
-      </c>
-      <c r="G96" s="6">
-        <v>0.93</v>
-      </c>
-      <c r="H96" s="6">
-        <v>-8.61</v>
-      </c>
-      <c r="I96" s="6">
-        <v>2.48</v>
-      </c>
-      <c r="J96" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="K96" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="L96" s="6">
-        <v>2.98</v>
-      </c>
-      <c r="M96" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="N96" s="6">
-        <v>3.04</v>
-      </c>
-      <c r="O96" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="P96" s="7">
-        <v>-1.23</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C97" s="11">
-        <v>202108</v>
-      </c>
-      <c r="D97" s="6">
-        <v>56</v>
-      </c>
-      <c r="E97" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="F97" s="6">
-        <v>1.62</v>
-      </c>
-      <c r="G97" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="H97" s="6">
-        <v>-1.35</v>
-      </c>
-      <c r="I97" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J97" s="6">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="K97" s="6">
-        <v>1.35</v>
-      </c>
-      <c r="L97" s="6">
-        <v>3.23</v>
-      </c>
-      <c r="M97" s="6">
-        <v>2.36</v>
-      </c>
-      <c r="N97" s="6">
-        <v>2.81</v>
-      </c>
-      <c r="O97" s="6">
-        <v>2.74</v>
-      </c>
-      <c r="P97" s="7">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C98" s="11">
-        <v>202109</v>
-      </c>
-      <c r="D98" s="6">
-        <v>57</v>
-      </c>
-      <c r="E98" s="6">
-        <v>-4.58</v>
-      </c>
-      <c r="F98" s="6">
-        <v>2.81</v>
-      </c>
-      <c r="G98" s="6">
-        <v>-6.34</v>
-      </c>
-      <c r="H98" s="6">
-        <v>10.49</v>
-      </c>
-      <c r="I98" s="6">
-        <v>-4.97</v>
-      </c>
-      <c r="J98" s="6">
-        <v>-6.21</v>
-      </c>
-      <c r="K98" s="6">
-        <v>-5.64</v>
-      </c>
-      <c r="L98" s="6">
-        <v>-4.84</v>
-      </c>
-      <c r="M98" s="6">
-        <v>-4.3</v>
-      </c>
-      <c r="N98" s="6">
-        <v>-5.99</v>
-      </c>
-      <c r="O98" s="6">
-        <v>-1.58</v>
-      </c>
-      <c r="P98" s="7">
-        <v>-3.46</v>
-      </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C99" s="11">
-        <v>202110</v>
-      </c>
-      <c r="D99" s="6">
-        <v>58</v>
-      </c>
-      <c r="E99" s="6">
-        <v>3.78</v>
-      </c>
-      <c r="F99" s="6">
-        <v>30.3</v>
-      </c>
-      <c r="G99" s="6">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="H99" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="I99" s="6">
-        <v>6.03</v>
-      </c>
-      <c r="J99" s="6">
-        <v>7.71</v>
-      </c>
-      <c r="K99" s="6">
-        <v>-4.29</v>
-      </c>
-      <c r="L99" s="6">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="M99" s="6">
-        <v>5.01</v>
-      </c>
-      <c r="N99" s="6">
-        <v>2.31</v>
-      </c>
-      <c r="O99" s="6">
-        <v>7</v>
-      </c>
-      <c r="P99" s="7">
-        <v>7.29</v>
-      </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C100" s="11">
-        <v>202111</v>
-      </c>
-      <c r="D100" s="6">
-        <v>59</v>
-      </c>
-      <c r="E100" s="6">
-        <v>-3.86</v>
-      </c>
-      <c r="F100" s="6">
-        <v>1.78</v>
-      </c>
-      <c r="G100" s="6">
-        <v>-1.07</v>
-      </c>
-      <c r="H100" s="6">
-        <v>-5.4</v>
-      </c>
-      <c r="I100" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="J100" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="K100" s="6">
-        <v>-7.25</v>
-      </c>
-      <c r="L100" s="6">
-        <v>-1.96</v>
-      </c>
-      <c r="M100" s="6">
-        <v>1.41</v>
-      </c>
-      <c r="N100" s="6">
-        <v>-4.29</v>
-      </c>
-      <c r="O100" s="6">
-        <v>-5.73</v>
-      </c>
-      <c r="P100" s="7">
-        <v>-3.79</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C101" s="11">
-        <v>202112</v>
-      </c>
-      <c r="D101" s="6">
-        <v>60</v>
-      </c>
-      <c r="E101" s="6">
-        <v>7.97</v>
-      </c>
-      <c r="F101" s="6">
-        <v>-4.54</v>
-      </c>
-      <c r="G101" s="6">
-        <v>4</v>
-      </c>
-      <c r="H101" s="6">
-        <v>3.15</v>
-      </c>
-      <c r="I101" s="6">
-        <v>9.66</v>
-      </c>
-      <c r="J101" s="6">
-        <v>1.71</v>
-      </c>
-      <c r="K101" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="L101" s="6">
-        <v>8.57</v>
-      </c>
-      <c r="M101" s="6">
-        <v>1.29</v>
-      </c>
-      <c r="N101" s="6">
-        <v>6.72</v>
-      </c>
-      <c r="O101" s="6">
-        <v>4.72</v>
-      </c>
-      <c r="P101" s="7">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C102" s="11">
-        <v>202201</v>
-      </c>
-      <c r="D102" s="6">
-        <v>61</v>
-      </c>
-      <c r="E102" s="6">
-        <v>-0.73</v>
-      </c>
-      <c r="F102" s="6">
-        <v>-10.23</v>
-      </c>
-      <c r="G102" s="6">
-        <v>-5.69</v>
-      </c>
-      <c r="H102" s="6">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="I102" s="6">
-        <v>-6.61</v>
-      </c>
-      <c r="J102" s="6">
-        <v>-8.31</v>
-      </c>
-      <c r="K102" s="6">
-        <v>-1.98</v>
-      </c>
-      <c r="L102" s="6">
-        <v>-2.1</v>
-      </c>
-      <c r="M102" s="6">
-        <v>-9</v>
-      </c>
-      <c r="N102" s="6">
-        <v>-8.66</v>
-      </c>
-      <c r="O102" s="6">
-        <v>-0.72</v>
-      </c>
-      <c r="P102" s="7">
-        <v>-6.17</v>
-      </c>
-    </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C103" s="11">
-        <v>202202</v>
-      </c>
-      <c r="D103" s="6">
-        <v>62</v>
-      </c>
-      <c r="E103" s="6">
-        <v>-0.51</v>
-      </c>
-      <c r="F103" s="6">
-        <v>-7.19</v>
-      </c>
-      <c r="G103" s="6">
-        <v>-0.33</v>
-      </c>
-      <c r="H103" s="6">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="I103" s="6">
-        <v>-3.52</v>
-      </c>
-      <c r="J103" s="6">
-        <v>-5.2</v>
-      </c>
-      <c r="K103" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="L103" s="6">
-        <v>-1.1100000000000001</v>
-      </c>
-      <c r="M103" s="6">
-        <v>-1.56</v>
-      </c>
-      <c r="N103" s="6">
-        <v>-1.01</v>
-      </c>
-      <c r="O103" s="6">
-        <v>-1.7</v>
-      </c>
-      <c r="P103" s="7">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="104" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C104" s="11">
-        <v>202203</v>
-      </c>
-      <c r="D104" s="6">
-        <v>63</v>
-      </c>
-      <c r="E104" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="F104" s="6">
-        <v>14.67</v>
-      </c>
-      <c r="G104" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="H104" s="6">
-        <v>9.83</v>
-      </c>
-      <c r="I104" s="6">
-        <v>-0.25</v>
-      </c>
-      <c r="J104" s="6">
-        <v>3.23</v>
-      </c>
-      <c r="K104" s="6">
-        <v>-2.46</v>
-      </c>
-      <c r="L104" s="6">
-        <v>9.68</v>
-      </c>
-      <c r="M104" s="6">
-        <v>2.91</v>
-      </c>
-      <c r="N104" s="6">
-        <v>5.13</v>
-      </c>
-      <c r="O104" s="6">
-        <v>-0.99</v>
-      </c>
-      <c r="P104" s="7">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="105" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C105" s="11">
-        <v>202204</v>
-      </c>
-      <c r="D105" s="6">
-        <v>64</v>
-      </c>
-      <c r="E105" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F105" s="6">
-        <v>-16.97</v>
-      </c>
-      <c r="G105" s="6">
-        <v>-7.92</v>
-      </c>
-      <c r="H105" s="6">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="I105" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="J105" s="6">
-        <v>-12.66</v>
-      </c>
-      <c r="K105" s="6">
-        <v>-10.7</v>
-      </c>
-      <c r="L105" s="6">
-        <v>-3.71</v>
-      </c>
-      <c r="M105" s="6">
-        <v>-9.91</v>
-      </c>
-      <c r="N105" s="6">
-        <v>-6.8</v>
-      </c>
-      <c r="O105" s="6">
-        <v>-7.99</v>
-      </c>
-      <c r="P105" s="7">
-        <v>-10.29</v>
-      </c>
-    </row>
-    <row r="106" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C106" s="11">
-        <v>202205</v>
-      </c>
-      <c r="D106" s="6">
-        <v>65</v>
-      </c>
-      <c r="E106" s="6">
-        <v>-1.68</v>
-      </c>
-      <c r="F106" s="6">
-        <v>-8.84</v>
-      </c>
-      <c r="G106" s="6">
-        <v>-0.19</v>
-      </c>
-      <c r="H106" s="6">
-        <v>15.39</v>
-      </c>
-      <c r="I106" s="6">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="J106" s="6">
-        <v>-2.16</v>
-      </c>
-      <c r="K106" s="6">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="L106" s="6">
-        <v>4.79</v>
-      </c>
-      <c r="M106" s="6">
-        <v>-4.12</v>
-      </c>
-      <c r="N106" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="O106" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="P106" s="7">
-        <v>-2.96</v>
-      </c>
-    </row>
-    <row r="107" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C107" s="11">
-        <v>202206</v>
-      </c>
-      <c r="D107" s="6">
-        <v>66</v>
-      </c>
-      <c r="E107" s="6">
-        <v>-3.9</v>
-      </c>
-      <c r="F107" s="6">
-        <v>-11.97</v>
-      </c>
-      <c r="G107" s="6">
-        <v>-10.06</v>
-      </c>
-      <c r="H107" s="6">
-        <v>-16.25</v>
-      </c>
-      <c r="I107" s="6">
-        <v>-8.1199999999999992</v>
-      </c>
-      <c r="J107" s="6">
-        <v>-8.3699999999999992</v>
-      </c>
-      <c r="K107" s="6">
-        <v>-6.72</v>
-      </c>
-      <c r="L107" s="6">
-        <v>-6.55</v>
-      </c>
-      <c r="M107" s="6">
-        <v>-7.65</v>
-      </c>
-      <c r="N107" s="6">
-        <v>-2.0499999999999998</v>
-      </c>
-      <c r="O107" s="6">
-        <v>-9.0500000000000007</v>
-      </c>
-      <c r="P107" s="7">
-        <v>-11.29</v>
-      </c>
-    </row>
-    <row r="108" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C108" s="11">
-        <v>202207</v>
-      </c>
-      <c r="D108" s="6">
-        <v>67</v>
-      </c>
-      <c r="E108" s="6">
-        <v>4.21</v>
-      </c>
-      <c r="F108" s="6">
-        <v>27.47</v>
-      </c>
-      <c r="G108" s="6">
-        <v>11.02</v>
-      </c>
-      <c r="H108" s="6">
-        <v>10.49</v>
-      </c>
-      <c r="I108" s="6">
-        <v>3.17</v>
-      </c>
-      <c r="J108" s="6">
-        <v>11.63</v>
-      </c>
-      <c r="K108" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="L108" s="6">
-        <v>6.26</v>
-      </c>
-      <c r="M108" s="6">
-        <v>14.64</v>
-      </c>
-      <c r="N108" s="6">
-        <v>2.75</v>
-      </c>
-      <c r="O108" s="6">
-        <v>7.38</v>
-      </c>
-      <c r="P108" s="7">
-        <v>10.82</v>
-      </c>
-    </row>
-    <row r="109" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C109" s="11">
-        <v>202208</v>
-      </c>
-      <c r="D109" s="6">
-        <v>68</v>
-      </c>
-      <c r="E109" s="6">
-        <v>-1.89</v>
-      </c>
-      <c r="F109" s="6">
-        <v>-5.77</v>
-      </c>
-      <c r="G109" s="6">
-        <v>-4.37</v>
-      </c>
-      <c r="H109" s="6">
-        <v>3.32</v>
-      </c>
-      <c r="I109" s="6">
-        <v>-1.61</v>
-      </c>
-      <c r="J109" s="6">
-        <v>-5.12</v>
-      </c>
-      <c r="K109" s="6">
-        <v>-3.01</v>
-      </c>
-      <c r="L109" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="M109" s="6">
-        <v>-3.12</v>
-      </c>
-      <c r="N109" s="6">
-        <v>-5.07</v>
-      </c>
-      <c r="O109" s="6">
-        <v>-2.2400000000000002</v>
-      </c>
-      <c r="P109" s="7">
-        <v>-3.94</v>
-      </c>
-    </row>
-    <row r="110" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C110" s="11">
-        <v>202209</v>
-      </c>
-      <c r="D110" s="6">
-        <v>69</v>
-      </c>
-      <c r="E110" s="6">
-        <v>-8.32</v>
-      </c>
-      <c r="F110" s="6">
-        <v>-6.68</v>
-      </c>
-      <c r="G110" s="6">
-        <v>-11.88</v>
-      </c>
-      <c r="H110" s="6">
-        <v>-9.1300000000000008</v>
-      </c>
-      <c r="I110" s="6">
-        <v>-10.73</v>
-      </c>
-      <c r="J110" s="6">
-        <v>-11.48</v>
-      </c>
-      <c r="K110" s="6">
-        <v>-13.94</v>
-      </c>
-      <c r="L110" s="6">
-        <v>-11.65</v>
-      </c>
-      <c r="M110" s="6">
-        <v>-7.61</v>
-      </c>
-      <c r="N110" s="6">
-        <v>-1.91</v>
-      </c>
-      <c r="O110" s="6">
-        <v>-7.74</v>
-      </c>
-      <c r="P110" s="7">
-        <v>-8.27</v>
-      </c>
-    </row>
-    <row r="111" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C111" s="11">
-        <v>202210</v>
-      </c>
-      <c r="D111">
-        <v>70</v>
-      </c>
-      <c r="E111" s="6">
-        <v>9.98</v>
-      </c>
-      <c r="F111" s="6">
-        <v>-6.61</v>
-      </c>
-      <c r="G111" s="6">
-        <v>14.84</v>
-      </c>
-      <c r="H111" s="6">
-        <v>23.61</v>
-      </c>
-      <c r="I111" s="6">
-        <v>6.91</v>
-      </c>
-      <c r="J111" s="6">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="K111" s="6">
-        <v>10.58</v>
-      </c>
-      <c r="L111" s="6">
-        <v>3.51</v>
-      </c>
-      <c r="M111" s="6">
-        <v>4.25</v>
-      </c>
-      <c r="N111" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O111" s="6">
-        <v>12.74</v>
-      </c>
-      <c r="P111" s="7">
-        <v>9.86</v>
-      </c>
-    </row>
-    <row r="112" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C112" s="11">
-        <v>202211</v>
-      </c>
-      <c r="D112">
-        <v>71</v>
-      </c>
-      <c r="E112" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="F112" s="6">
-        <v>-8.1</v>
-      </c>
-      <c r="G112" s="6">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="H112" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="I112" s="6">
-        <v>9.91</v>
-      </c>
-      <c r="J112" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="K112" s="6">
-        <v>2.15</v>
-      </c>
-      <c r="L112" s="6">
-        <v>6.78</v>
-      </c>
-      <c r="M112" s="6">
-        <v>3.85</v>
-      </c>
-      <c r="N112" s="6">
-        <v>5.35</v>
-      </c>
-      <c r="O112" s="6">
-        <v>4.79</v>
-      </c>
-      <c r="P112" s="7">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="113" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C113" s="11">
-        <v>202212</v>
-      </c>
-      <c r="D113">
-        <v>72</v>
-      </c>
-      <c r="E113" s="6">
-        <v>-2.66</v>
-      </c>
-      <c r="F113" s="6">
-        <v>-28.07</v>
-      </c>
-      <c r="G113" s="6">
-        <v>-2.42</v>
-      </c>
-      <c r="H113" s="6">
-        <v>-4.17</v>
-      </c>
-      <c r="I113" s="6">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="J113" s="6">
-        <v>-7.95</v>
-      </c>
-      <c r="K113" s="6">
-        <v>-6.81</v>
-      </c>
-      <c r="L113" s="6">
-        <v>-1.21</v>
-      </c>
-      <c r="M113" s="6">
-        <v>-7.97</v>
-      </c>
-      <c r="N113" s="6">
-        <v>-1.74</v>
-      </c>
-      <c r="O113" s="6">
-        <v>-5.54</v>
-      </c>
-      <c r="P113" s="7">
-        <v>-5.05</v>
-      </c>
-    </row>
-    <row r="114" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C114" s="11">
-        <v>202301</v>
-      </c>
-      <c r="D114">
-        <v>73</v>
-      </c>
-      <c r="E114" s="6">
-        <v>-0.37</v>
-      </c>
-      <c r="F114" s="6">
-        <v>29.03</v>
-      </c>
-      <c r="G114" s="6">
-        <v>7.25</v>
-      </c>
-      <c r="H114" s="6">
-        <v>2.82</v>
-      </c>
-      <c r="I114" s="6">
-        <v>3.08</v>
-      </c>
-      <c r="J114" s="6">
-        <v>9.67</v>
-      </c>
-      <c r="K114" s="6">
-        <v>13.53</v>
-      </c>
-      <c r="L114" s="6">
-        <v>-1.24</v>
-      </c>
-      <c r="M114" s="6">
-        <v>9.74</v>
-      </c>
-      <c r="N114" s="6">
-        <v>-1.03</v>
-      </c>
-      <c r="O114" s="6">
-        <v>6.37</v>
-      </c>
-      <c r="P114" s="7">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="115" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C115" s="11">
-        <v>202302</v>
-      </c>
-      <c r="D115">
-        <v>74</v>
-      </c>
-      <c r="E115" s="6">
-        <v>-2.1800000000000002</v>
-      </c>
-      <c r="F115" s="6">
-        <v>11</v>
-      </c>
-      <c r="G115" s="6">
-        <v>-1.06</v>
-      </c>
-      <c r="H115" s="6">
-        <v>-6.84</v>
-      </c>
-      <c r="I115" s="6">
-        <v>-3.61</v>
-      </c>
-      <c r="J115" s="6">
-        <v>-0.19</v>
-      </c>
-      <c r="K115" s="6">
-        <v>-6.5</v>
-      </c>
-      <c r="L115" s="6">
-        <v>-5.32</v>
-      </c>
-      <c r="M115" s="6">
-        <v>-4.6500000000000004</v>
-      </c>
-      <c r="N115" s="6">
-        <v>-4.29</v>
-      </c>
-      <c r="O115" s="6">
-        <v>-2.83</v>
-      </c>
-      <c r="P115" s="7">
-        <v>-2.59</v>
-      </c>
-    </row>
-    <row r="116" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C116" s="11">
-        <v>202303</v>
-      </c>
-      <c r="D116">
-        <v>75</v>
-      </c>
-      <c r="E116" s="6">
-        <v>3.13</v>
-      </c>
-      <c r="F116" s="6">
-        <v>-0.62</v>
-      </c>
-      <c r="G116" s="6">
-        <v>-0.17</v>
-      </c>
-      <c r="H116" s="6">
-        <v>-0.32</v>
-      </c>
-      <c r="I116" s="6">
-        <v>1.61</v>
-      </c>
-      <c r="J116" s="6">
-        <v>10.42</v>
-      </c>
-      <c r="K116" s="6">
-        <v>-0.13</v>
-      </c>
-      <c r="L116" s="6">
-        <v>3.89</v>
-      </c>
-      <c r="M116" s="6">
-        <v>3.49</v>
-      </c>
-      <c r="N116" s="6">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="O116" s="6">
-        <v>-8.66</v>
-      </c>
-      <c r="P116" s="7">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="117" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C117" s="11">
-        <v>202304</v>
-      </c>
-      <c r="D117">
-        <v>76</v>
-      </c>
-      <c r="E117" s="6">
-        <v>3.16</v>
-      </c>
-      <c r="F117" s="6">
-        <v>-15.24</v>
-      </c>
-      <c r="G117" s="6">
-        <v>-2.0099999999999998</v>
-      </c>
-      <c r="H117" s="6">
-        <v>2.59</v>
-      </c>
-      <c r="I117" s="6">
-        <v>2.62</v>
-      </c>
-      <c r="J117" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K117" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="L117" s="6">
-        <v>1.72</v>
-      </c>
-      <c r="M117" s="6">
-        <v>2.19</v>
-      </c>
-      <c r="N117" s="6">
-        <v>4.12</v>
-      </c>
-      <c r="O117" s="6">
-        <v>1.97</v>
-      </c>
-      <c r="P117" s="7">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="118" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C118" s="11">
-        <v>202305</v>
-      </c>
-      <c r="D118">
-        <v>77</v>
-      </c>
-      <c r="E118" s="6">
-        <v>-5.35</v>
-      </c>
-      <c r="F118" s="6">
-        <v>13.52</v>
-      </c>
-      <c r="G118" s="6">
-        <v>-4.1399999999999997</v>
-      </c>
-      <c r="H118" s="6">
-        <v>-9.51</v>
-      </c>
-      <c r="I118" s="6">
-        <v>-8.5299999999999994</v>
-      </c>
-      <c r="J118" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="K118" s="6">
-        <v>-9.4</v>
-      </c>
-      <c r="L118" s="6">
-        <v>-5.82</v>
-      </c>
-      <c r="M118" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="N118" s="6">
-        <v>-3.67</v>
-      </c>
-      <c r="O118" s="6">
-        <v>-3.77</v>
-      </c>
-      <c r="P118" s="7">
-        <v>-0.84</v>
-      </c>
-    </row>
-    <row r="119" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C119" s="11">
-        <v>202306</v>
-      </c>
-      <c r="D119">
-        <v>78</v>
-      </c>
-      <c r="E119" s="6">
-        <v>2.84</v>
-      </c>
-      <c r="F119" s="6">
-        <v>24.66</v>
-      </c>
-      <c r="G119" s="6">
-        <v>11.58</v>
-      </c>
-      <c r="H119" s="6">
-        <v>6.42</v>
-      </c>
-      <c r="I119" s="6">
-        <v>8.69</v>
-      </c>
-      <c r="J119" s="6">
-        <v>5.87</v>
-      </c>
-      <c r="K119" s="6">
-        <v>4.63</v>
-      </c>
-      <c r="L119" s="6">
-        <v>2.61</v>
-      </c>
-      <c r="M119" s="6">
-        <v>7.89</v>
-      </c>
-      <c r="N119" s="6">
-        <v>4.66</v>
-      </c>
-      <c r="O119" s="6">
-        <v>5.87</v>
-      </c>
-      <c r="P119" s="7">
-        <v>9.82</v>
-      </c>
-    </row>
-    <row r="120" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C120" s="11">
-        <v>202307</v>
-      </c>
-      <c r="D120">
-        <v>79</v>
-      </c>
-      <c r="E120" s="6">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="F120" s="6">
-        <v>2.73</v>
-      </c>
-      <c r="G120" s="6">
-        <v>3.81</v>
-      </c>
-      <c r="H120" s="6">
-        <v>7.34</v>
-      </c>
-      <c r="I120" s="6">
-        <v>1.79</v>
-      </c>
-      <c r="J120" s="6">
-        <v>4.32</v>
-      </c>
-      <c r="K120" s="6">
-        <v>0.98</v>
-      </c>
-      <c r="L120" s="6">
-        <v>2.79</v>
-      </c>
-      <c r="M120" s="6">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="N120" s="6">
-        <v>-0.11</v>
-      </c>
-      <c r="O120" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="P120" s="7">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="121" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C121" s="11">
-        <v>202308</v>
-      </c>
-      <c r="D121">
-        <v>80</v>
-      </c>
-      <c r="E121" s="6">
-        <v>-3.77</v>
-      </c>
-      <c r="F121" s="6">
-        <v>-4.3099999999999996</v>
-      </c>
-      <c r="G121" s="6">
-        <v>-2.21</v>
-      </c>
-      <c r="H121" s="6">
-        <v>1.95</v>
-      </c>
-      <c r="I121" s="6">
-        <v>-2.75</v>
-      </c>
-      <c r="J121" s="6">
-        <v>-1.67</v>
-      </c>
-      <c r="K121" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L121" s="6">
-        <v>-5.29</v>
-      </c>
-      <c r="M121" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="N121" s="6">
-        <v>-0.22</v>
-      </c>
-      <c r="O121" s="6">
-        <v>-3.61</v>
-      </c>
-      <c r="P121" s="7">
-        <v>-2.98</v>
-      </c>
-    </row>
-    <row r="122" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C122" s="12">
-        <v>202309</v>
-      </c>
-      <c r="D122" s="22">
-        <v>81</v>
-      </c>
-      <c r="E122" s="8">
-        <v>-4.57</v>
-      </c>
-      <c r="F122" s="8">
-        <v>-2.58</v>
-      </c>
-      <c r="G122" s="8">
-        <v>-7.3</v>
-      </c>
-      <c r="H122" s="8">
-        <v>3.17</v>
-      </c>
-      <c r="I122" s="8">
-        <v>-6.57</v>
-      </c>
-      <c r="J122" s="8">
-        <v>-5.96</v>
-      </c>
-      <c r="K122" s="8">
-        <v>-3.22</v>
-      </c>
-      <c r="L122" s="8">
-        <v>-5.04</v>
-      </c>
-      <c r="M122" s="8">
-        <v>-5.68</v>
-      </c>
-      <c r="N122" s="8">
+      <c r="AD99" s="8">
         <v>-4.71</v>
       </c>
-      <c r="O122" s="8">
+      <c r="AE99" s="8">
         <v>-2.04</v>
       </c>
-      <c r="P122" s="9">
+      <c r="AF99" s="9">
         <v>-5.57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:P40"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
+  <mergeCells count="3">
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="U17:AF17"/>
+    <mergeCell ref="T17:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
